--- a/National/Hypothesis/Output/Detenciones/Tipo/hyp_detenciones_flagrancia_years.xlsx
+++ b/National/Hypothesis/Output/Detenciones/Tipo/hyp_detenciones_flagrancia_years.xlsx
@@ -7432,9 +7432,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{088860FF-B81B-4413-8452-C6458113C715}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D98F114B-545E-48F6-AB74-8880811A2818}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D2810D4-5AB8-4A1F-A8CE-28A49AEBA5CD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FCAD6B6-A52F-401D-AD26-02CA7EF0442E}"/>
 </file>
--- a/National/Hypothesis/Output/Detenciones/Tipo/hyp_detenciones_flagrancia_years.xlsx
+++ b/National/Hypothesis/Output/Detenciones/Tipo/hyp_detenciones_flagrancia_years.xlsx
@@ -1,18 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/mexico/MEX Research Team/FEDERAL AWARDS/ENPOL/Data/National/Hypothesis/Output/Detenciones/Tipo/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_8DE43B9010DA47FF2AEF57A08A6C76A835AF6392" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{075B6B30-B1E8-7D49-A629-D16724AAA1C8}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Resultados Generales" r:id="rId3" sheetId="1"/>
-    <sheet name="Resultados Generales (modelo fu" r:id="rId4" sheetId="2"/>
-    <sheet name="Resultados Generales (efectos m" r:id="rId5" sheetId="3"/>
-    <sheet name="Por Corporacion_grupos" r:id="rId6" sheetId="4"/>
-    <sheet name="Por Estado" r:id="rId7" sheetId="5"/>
-    <sheet name="Por Sexo" r:id="rId8" sheetId="6"/>
+    <sheet name="Resultados Generales" sheetId="1" r:id="rId1"/>
+    <sheet name="Resultados Generales (modelo fu" sheetId="2" r:id="rId2"/>
+    <sheet name="Resultados Generales (efectos m" sheetId="3" r:id="rId3"/>
+    <sheet name="Por Corporacion_grupos" sheetId="4" r:id="rId4"/>
+    <sheet name="Por Estado" sheetId="5" r:id="rId5"/>
+    <sheet name="Por Sexo" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Por Corporacion_grupos'!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Por Estado'!$A$1:$L$1</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -469,11 +481,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -485,7 +496,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -503,18 +514,326 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -555,7 +874,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -568,8 +887,8 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.010565218622435821</v>
+      <c r="E2">
+        <v>1.0565218622435821E-2</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -583,33 +902,35 @@
       <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="n">
-        <v>0.008830028603740252</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.012300408641131185</v>
-      </c>
-      <c r="L2" t="n">
-        <v>32060.0</v>
+      <c r="J2">
+        <v>8.8300286037402524E-3</v>
+      </c>
+      <c r="K2">
+        <v>1.2300408641131185E-2</v>
+      </c>
+      <c r="L2">
+        <v>32060</v>
       </c>
       <c r="M2" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:E42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -644,7 +965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -657,7 +978,7 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-0.7198417285791664</v>
       </c>
       <c r="F2" t="s">
@@ -672,14 +993,14 @@
       <c r="I2" t="s">
         <v>102</v>
       </c>
-      <c r="J2" t="n">
-        <v>32015.0</v>
+      <c r="J2">
+        <v>32015</v>
       </c>
       <c r="K2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -692,7 +1013,7 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.10685759978768343</v>
       </c>
       <c r="F3" t="s">
@@ -707,14 +1028,14 @@
       <c r="I3" t="s">
         <v>102</v>
       </c>
-      <c r="J3" t="n">
-        <v>32015.0</v>
+      <c r="J3">
+        <v>32015</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -727,7 +1048,7 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0.45286406158949843</v>
       </c>
       <c r="F4" t="s">
@@ -742,14 +1063,14 @@
       <c r="I4" t="s">
         <v>102</v>
       </c>
-      <c r="J4" t="n">
-        <v>32015.0</v>
+      <c r="J4">
+        <v>32015</v>
       </c>
       <c r="K4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -762,8 +1083,8 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="n">
-        <v>-0.291834698655396</v>
+      <c r="E5">
+        <v>-0.29183469865539602</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -777,14 +1098,14 @@
       <c r="I5" t="s">
         <v>102</v>
       </c>
-      <c r="J5" t="n">
-        <v>32015.0</v>
+      <c r="J5">
+        <v>32015</v>
       </c>
       <c r="K5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -797,7 +1118,7 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>0.18555110816506062</v>
       </c>
       <c r="F6" t="s">
@@ -812,14 +1133,14 @@
       <c r="I6" t="s">
         <v>102</v>
       </c>
-      <c r="J6" t="n">
-        <v>32015.0</v>
+      <c r="J6">
+        <v>32015</v>
       </c>
       <c r="K6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -832,8 +1153,8 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="n">
-        <v>-0.08837968108981396</v>
+      <c r="E7">
+        <v>-8.8379681089813963E-2</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -847,14 +1168,14 @@
       <c r="I7" t="s">
         <v>102</v>
       </c>
-      <c r="J7" t="n">
-        <v>32015.0</v>
+      <c r="J7">
+        <v>32015</v>
       </c>
       <c r="K7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -867,8 +1188,8 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="n">
-        <v>-1.432343423429895</v>
+      <c r="E8">
+        <v>-1.4323434234298951</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -882,14 +1203,14 @@
       <c r="I8" t="s">
         <v>18</v>
       </c>
-      <c r="J8" t="n">
-        <v>32015.0</v>
+      <c r="J8">
+        <v>32015</v>
       </c>
       <c r="K8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -902,7 +1223,7 @@
       <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-1.456698372110641</v>
       </c>
       <c r="F9" t="s">
@@ -917,14 +1238,14 @@
       <c r="I9" t="s">
         <v>18</v>
       </c>
-      <c r="J9" t="n">
-        <v>32015.0</v>
+      <c r="J9">
+        <v>32015</v>
       </c>
       <c r="K9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -937,7 +1258,7 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.32289590764764964</v>
       </c>
       <c r="F10" t="s">
@@ -952,14 +1273,14 @@
       <c r="I10" t="s">
         <v>102</v>
       </c>
-      <c r="J10" t="n">
-        <v>32015.0</v>
+      <c r="J10">
+        <v>32015</v>
       </c>
       <c r="K10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -972,7 +1293,7 @@
       <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-0.23365256261158035</v>
       </c>
       <c r="F11" t="s">
@@ -987,14 +1308,14 @@
       <c r="I11" t="s">
         <v>102</v>
       </c>
-      <c r="J11" t="n">
-        <v>32015.0</v>
+      <c r="J11">
+        <v>32015</v>
       </c>
       <c r="K11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1007,8 +1328,8 @@
       <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" t="n">
-        <v>0.3905995533674537</v>
+      <c r="E12">
+        <v>0.39059955336745372</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -1022,14 +1343,14 @@
       <c r="I12" t="s">
         <v>102</v>
       </c>
-      <c r="J12" t="n">
-        <v>32015.0</v>
+      <c r="J12">
+        <v>32015</v>
       </c>
       <c r="K12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1042,8 +1363,8 @@
       <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" t="n">
-        <v>-0.029804752596550514</v>
+      <c r="E13">
+        <v>-2.9804752596550514E-2</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -1057,14 +1378,14 @@
       <c r="I13" t="s">
         <v>102</v>
       </c>
-      <c r="J13" t="n">
-        <v>32015.0</v>
+      <c r="J13">
+        <v>32015</v>
       </c>
       <c r="K13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1077,7 +1398,7 @@
       <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>1.3589121159272646</v>
       </c>
       <c r="F14" t="s">
@@ -1092,14 +1413,14 @@
       <c r="I14" t="s">
         <v>18</v>
       </c>
-      <c r="J14" t="n">
-        <v>32015.0</v>
+      <c r="J14">
+        <v>32015</v>
       </c>
       <c r="K14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1112,7 +1433,7 @@
       <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>0.46288439401332376</v>
       </c>
       <c r="F15" t="s">
@@ -1127,14 +1448,14 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
-      <c r="J15" t="n">
-        <v>32015.0</v>
+      <c r="J15">
+        <v>32015</v>
       </c>
       <c r="K15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1147,8 +1468,8 @@
       <c r="D16" t="s">
         <v>16</v>
       </c>
-      <c r="E16" t="n">
-        <v>-0.1410150226162805</v>
+      <c r="E16">
+        <v>-0.14101502261628049</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -1162,14 +1483,14 @@
       <c r="I16" t="s">
         <v>102</v>
       </c>
-      <c r="J16" t="n">
-        <v>32015.0</v>
+      <c r="J16">
+        <v>32015</v>
       </c>
       <c r="K16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1182,7 +1503,7 @@
       <c r="D17" t="s">
         <v>16</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>-0.22035721237950662</v>
       </c>
       <c r="F17" t="s">
@@ -1197,14 +1518,14 @@
       <c r="I17" t="s">
         <v>102</v>
       </c>
-      <c r="J17" t="n">
-        <v>32015.0</v>
+      <c r="J17">
+        <v>32015</v>
       </c>
       <c r="K17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1217,8 +1538,8 @@
       <c r="D18" t="s">
         <v>16</v>
       </c>
-      <c r="E18" t="n">
-        <v>0.583373634863646</v>
+      <c r="E18">
+        <v>0.58337363486364602</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -1232,14 +1553,14 @@
       <c r="I18" t="s">
         <v>102</v>
       </c>
-      <c r="J18" t="n">
-        <v>32015.0</v>
+      <c r="J18">
+        <v>32015</v>
       </c>
       <c r="K18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1252,8 +1573,8 @@
       <c r="D19" t="s">
         <v>16</v>
       </c>
-      <c r="E19" t="n">
-        <v>0.7043803738308242</v>
+      <c r="E19">
+        <v>0.70438037383082419</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
@@ -1267,14 +1588,14 @@
       <c r="I19" t="s">
         <v>102</v>
       </c>
-      <c r="J19" t="n">
-        <v>32015.0</v>
+      <c r="J19">
+        <v>32015</v>
       </c>
       <c r="K19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1287,7 +1608,7 @@
       <c r="D20" t="s">
         <v>16</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>0.21128298634141504</v>
       </c>
       <c r="F20" t="s">
@@ -1302,14 +1623,14 @@
       <c r="I20" t="s">
         <v>102</v>
       </c>
-      <c r="J20" t="n">
-        <v>32015.0</v>
+      <c r="J20">
+        <v>32015</v>
       </c>
       <c r="K20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1322,7 +1643,7 @@
       <c r="D21" t="s">
         <v>16</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>0.12903610159538972</v>
       </c>
       <c r="F21" t="s">
@@ -1337,14 +1658,14 @@
       <c r="I21" t="s">
         <v>102</v>
       </c>
-      <c r="J21" t="n">
-        <v>32015.0</v>
+      <c r="J21">
+        <v>32015</v>
       </c>
       <c r="K21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1357,8 +1678,8 @@
       <c r="D22" t="s">
         <v>16</v>
       </c>
-      <c r="E22" t="n">
-        <v>0.5728581748028436</v>
+      <c r="E22">
+        <v>0.57285817480284362</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
@@ -1372,14 +1693,14 @@
       <c r="I22" t="s">
         <v>102</v>
       </c>
-      <c r="J22" t="n">
-        <v>32015.0</v>
+      <c r="J22">
+        <v>32015</v>
       </c>
       <c r="K22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1392,8 +1713,8 @@
       <c r="D23" t="s">
         <v>16</v>
       </c>
-      <c r="E23" t="n">
-        <v>0.8505280825458</v>
+      <c r="E23">
+        <v>0.85052808254580003</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
@@ -1407,14 +1728,14 @@
       <c r="I23" t="s">
         <v>18</v>
       </c>
-      <c r="J23" t="n">
-        <v>32015.0</v>
+      <c r="J23">
+        <v>32015</v>
       </c>
       <c r="K23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1427,7 +1748,7 @@
       <c r="D24" t="s">
         <v>16</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>0.547589194024522</v>
       </c>
       <c r="F24" t="s">
@@ -1442,14 +1763,14 @@
       <c r="I24" t="s">
         <v>102</v>
       </c>
-      <c r="J24" t="n">
-        <v>32015.0</v>
+      <c r="J24">
+        <v>32015</v>
       </c>
       <c r="K24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1462,7 +1783,7 @@
       <c r="D25" t="s">
         <v>16</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>0.40215723626857214</v>
       </c>
       <c r="F25" t="s">
@@ -1477,14 +1798,14 @@
       <c r="I25" t="s">
         <v>102</v>
       </c>
-      <c r="J25" t="n">
-        <v>32015.0</v>
+      <c r="J25">
+        <v>32015</v>
       </c>
       <c r="K25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1497,8 +1818,8 @@
       <c r="D26" t="s">
         <v>16</v>
       </c>
-      <c r="E26" t="n">
-        <v>-0.5342178480594383</v>
+      <c r="E26">
+        <v>-0.53421784805943828</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -1512,14 +1833,14 @@
       <c r="I26" t="s">
         <v>102</v>
       </c>
-      <c r="J26" t="n">
-        <v>32015.0</v>
+      <c r="J26">
+        <v>32015</v>
       </c>
       <c r="K26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1532,8 +1853,8 @@
       <c r="D27" t="s">
         <v>16</v>
       </c>
-      <c r="E27" t="n">
-        <v>-0.08366722104861177</v>
+      <c r="E27">
+        <v>-8.3667221048611767E-2</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
@@ -1547,14 +1868,14 @@
       <c r="I27" t="s">
         <v>102</v>
       </c>
-      <c r="J27" t="n">
-        <v>32015.0</v>
+      <c r="J27">
+        <v>32015</v>
       </c>
       <c r="K27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1567,7 +1888,7 @@
       <c r="D28" t="s">
         <v>16</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>0.17021962732619142</v>
       </c>
       <c r="F28" t="s">
@@ -1582,14 +1903,14 @@
       <c r="I28" t="s">
         <v>102</v>
       </c>
-      <c r="J28" t="n">
-        <v>32015.0</v>
+      <c r="J28">
+        <v>32015</v>
       </c>
       <c r="K28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1602,8 +1923,8 @@
       <c r="D29" t="s">
         <v>16</v>
       </c>
-      <c r="E29" t="n">
-        <v>0.398473307325258</v>
+      <c r="E29">
+        <v>0.39847330732525799</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
@@ -1617,14 +1938,14 @@
       <c r="I29" t="s">
         <v>102</v>
       </c>
-      <c r="J29" t="n">
-        <v>32015.0</v>
+      <c r="J29">
+        <v>32015</v>
       </c>
       <c r="K29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1637,7 +1958,7 @@
       <c r="D30" t="s">
         <v>16</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>0.34420669640196944</v>
       </c>
       <c r="F30" t="s">
@@ -1652,14 +1973,14 @@
       <c r="I30" t="s">
         <v>102</v>
       </c>
-      <c r="J30" t="n">
-        <v>32015.0</v>
+      <c r="J30">
+        <v>32015</v>
       </c>
       <c r="K30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -1672,8 +1993,8 @@
       <c r="D31" t="s">
         <v>16</v>
       </c>
-      <c r="E31" t="n">
-        <v>0.9121370346946682</v>
+      <c r="E31">
+        <v>0.91213703469466823</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
@@ -1687,14 +2008,14 @@
       <c r="I31" t="s">
         <v>18</v>
       </c>
-      <c r="J31" t="n">
-        <v>32015.0</v>
+      <c r="J31">
+        <v>32015</v>
       </c>
       <c r="K31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -1707,8 +2028,8 @@
       <c r="D32" t="s">
         <v>16</v>
       </c>
-      <c r="E32" t="n">
-        <v>0.5242796384945198</v>
+      <c r="E32">
+        <v>0.52427963849451975</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
@@ -1722,14 +2043,14 @@
       <c r="I32" t="s">
         <v>102</v>
       </c>
-      <c r="J32" t="n">
-        <v>32015.0</v>
+      <c r="J32">
+        <v>32015</v>
       </c>
       <c r="K32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -1742,8 +2063,8 @@
       <c r="D33" t="s">
         <v>16</v>
       </c>
-      <c r="E33" t="n">
-        <v>0.5754574843516159</v>
+      <c r="E33">
+        <v>0.57545748435161592</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -1757,14 +2078,14 @@
       <c r="I33" t="s">
         <v>102</v>
       </c>
-      <c r="J33" t="n">
-        <v>32015.0</v>
+      <c r="J33">
+        <v>32015</v>
       </c>
       <c r="K33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -1777,8 +2098,8 @@
       <c r="D34" t="s">
         <v>16</v>
       </c>
-      <c r="E34" t="n">
-        <v>-0.01572346462500134</v>
+      <c r="E34">
+        <v>-1.5723464625001338E-2</v>
       </c>
       <c r="F34" t="s">
         <v>17</v>
@@ -1792,14 +2113,14 @@
       <c r="I34" t="s">
         <v>102</v>
       </c>
-      <c r="J34" t="n">
-        <v>32015.0</v>
+      <c r="J34">
+        <v>32015</v>
       </c>
       <c r="K34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -1812,8 +2133,8 @@
       <c r="D35" t="s">
         <v>16</v>
       </c>
-      <c r="E35" t="n">
-        <v>0.4086474066850883</v>
+      <c r="E35">
+        <v>0.40864740668508831</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
@@ -1827,14 +2148,14 @@
       <c r="I35" t="s">
         <v>102</v>
       </c>
-      <c r="J35" t="n">
-        <v>32015.0</v>
+      <c r="J35">
+        <v>32015</v>
       </c>
       <c r="K35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -1847,8 +2168,8 @@
       <c r="D36" t="s">
         <v>16</v>
       </c>
-      <c r="E36" t="n">
-        <v>0.7186739211042523</v>
+      <c r="E36">
+        <v>0.71867392110425232</v>
       </c>
       <c r="F36" t="s">
         <v>17</v>
@@ -1862,14 +2183,14 @@
       <c r="I36" t="s">
         <v>102</v>
       </c>
-      <c r="J36" t="n">
-        <v>32015.0</v>
+      <c r="J36">
+        <v>32015</v>
       </c>
       <c r="K36" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1882,8 +2203,8 @@
       <c r="D37" t="s">
         <v>16</v>
       </c>
-      <c r="E37" t="n">
-        <v>0.8888468591773835</v>
+      <c r="E37">
+        <v>0.88884685917738349</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
@@ -1897,14 +2218,14 @@
       <c r="I37" t="s">
         <v>18</v>
       </c>
-      <c r="J37" t="n">
-        <v>32015.0</v>
+      <c r="J37">
+        <v>32015</v>
       </c>
       <c r="K37" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -1917,8 +2238,8 @@
       <c r="D38" t="s">
         <v>16</v>
       </c>
-      <c r="E38" t="n">
-        <v>0.773874378410752</v>
+      <c r="E38">
+        <v>0.77387437841075202</v>
       </c>
       <c r="F38" t="s">
         <v>17</v>
@@ -1932,14 +2253,14 @@
       <c r="I38" t="s">
         <v>102</v>
       </c>
-      <c r="J38" t="n">
-        <v>32015.0</v>
+      <c r="J38">
+        <v>32015</v>
       </c>
       <c r="K38" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -1952,7 +2273,7 @@
       <c r="D39" t="s">
         <v>16</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>1.0693885863505581</v>
       </c>
       <c r="F39" t="s">
@@ -1967,14 +2288,14 @@
       <c r="I39" t="s">
         <v>18</v>
       </c>
-      <c r="J39" t="n">
-        <v>32015.0</v>
+      <c r="J39">
+        <v>32015</v>
       </c>
       <c r="K39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -1987,7 +2308,7 @@
       <c r="D40" t="s">
         <v>16</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>0.20177095175570445</v>
       </c>
       <c r="F40" t="s">
@@ -2002,14 +2323,14 @@
       <c r="I40" t="s">
         <v>102</v>
       </c>
-      <c r="J40" t="n">
-        <v>32015.0</v>
+      <c r="J40">
+        <v>32015</v>
       </c>
       <c r="K40" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -2022,8 +2343,8 @@
       <c r="D41" t="s">
         <v>16</v>
       </c>
-      <c r="E41" t="n">
-        <v>0.5881881937965422</v>
+      <c r="E41">
+        <v>0.58818819379654219</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
@@ -2037,14 +2358,14 @@
       <c r="I41" t="s">
         <v>102</v>
       </c>
-      <c r="J41" t="n">
-        <v>32015.0</v>
+      <c r="J41">
+        <v>32015</v>
       </c>
       <c r="K41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -2057,7 +2378,7 @@
       <c r="D42" t="s">
         <v>16</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>0.43218816337563926</v>
       </c>
       <c r="F42" t="s">
@@ -2072,14 +2393,14 @@
       <c r="I42" t="s">
         <v>102</v>
       </c>
-      <c r="J42" t="n">
-        <v>32015.0</v>
+      <c r="J42">
+        <v>32015</v>
       </c>
       <c r="K42" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -2092,8 +2413,8 @@
       <c r="D43" t="s">
         <v>16</v>
       </c>
-      <c r="E43" t="n">
-        <v>0.013042414275104056</v>
+      <c r="E43">
+        <v>1.3042414275104056E-2</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
@@ -2107,14 +2428,14 @@
       <c r="I43" t="s">
         <v>102</v>
       </c>
-      <c r="J43" t="n">
-        <v>32015.0</v>
+      <c r="J43">
+        <v>32015</v>
       </c>
       <c r="K43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -2127,7 +2448,7 @@
       <c r="D44" t="s">
         <v>16</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>-0.10379291978844471</v>
       </c>
       <c r="F44" t="s">
@@ -2142,14 +2463,14 @@
       <c r="I44" t="s">
         <v>102</v>
       </c>
-      <c r="J44" t="n">
-        <v>32015.0</v>
+      <c r="J44">
+        <v>32015</v>
       </c>
       <c r="K44" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -2162,8 +2483,8 @@
       <c r="D45" t="s">
         <v>16</v>
       </c>
-      <c r="E45" t="n">
-        <v>-0.05059810740502939</v>
+      <c r="E45">
+        <v>-5.0598107405029388E-2</v>
       </c>
       <c r="F45" t="s">
         <v>17</v>
@@ -2177,14 +2498,14 @@
       <c r="I45" t="s">
         <v>102</v>
       </c>
-      <c r="J45" t="n">
-        <v>32015.0</v>
+      <c r="J45">
+        <v>32015</v>
       </c>
       <c r="K45" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -2197,8 +2518,8 @@
       <c r="D46" t="s">
         <v>16</v>
       </c>
-      <c r="E46" t="n">
-        <v>-0.04059692613015556</v>
+      <c r="E46">
+        <v>-4.0596926130155558E-2</v>
       </c>
       <c r="F46" t="s">
         <v>17</v>
@@ -2212,14 +2533,14 @@
       <c r="I46" t="s">
         <v>102</v>
       </c>
-      <c r="J46" t="n">
-        <v>32015.0</v>
+      <c r="J46">
+        <v>32015</v>
       </c>
       <c r="K46" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -2232,8 +2553,8 @@
       <c r="D47" t="s">
         <v>16</v>
       </c>
-      <c r="E47" t="n">
-        <v>-0.018921209204884132</v>
+      <c r="E47">
+        <v>-1.8921209204884132E-2</v>
       </c>
       <c r="F47" t="s">
         <v>17</v>
@@ -2247,14 +2568,14 @@
       <c r="I47" t="s">
         <v>102</v>
       </c>
-      <c r="J47" t="n">
-        <v>32015.0</v>
+      <c r="J47">
+        <v>32015</v>
       </c>
       <c r="K47" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -2267,8 +2588,8 @@
       <c r="D48" t="s">
         <v>16</v>
       </c>
-      <c r="E48" t="n">
-        <v>-0.06562053006835843</v>
+      <c r="E48">
+        <v>-6.5620530068358426E-2</v>
       </c>
       <c r="F48" t="s">
         <v>17</v>
@@ -2282,14 +2603,14 @@
       <c r="I48" t="s">
         <v>102</v>
       </c>
-      <c r="J48" t="n">
-        <v>32015.0</v>
+      <c r="J48">
+        <v>32015</v>
       </c>
       <c r="K48" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2302,8 +2623,8 @@
       <c r="D49" t="s">
         <v>16</v>
       </c>
-      <c r="E49" t="n">
-        <v>-0.02942420563045383</v>
+      <c r="E49">
+        <v>-2.942420563045383E-2</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
@@ -2317,14 +2638,14 @@
       <c r="I49" t="s">
         <v>102</v>
       </c>
-      <c r="J49" t="n">
-        <v>32015.0</v>
+      <c r="J49">
+        <v>32015</v>
       </c>
       <c r="K49" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -2337,8 +2658,8 @@
       <c r="D50" t="s">
         <v>16</v>
       </c>
-      <c r="E50" t="n">
-        <v>-0.02402756341797073</v>
+      <c r="E50">
+        <v>-2.4027563417970729E-2</v>
       </c>
       <c r="F50" t="s">
         <v>17</v>
@@ -2352,14 +2673,14 @@
       <c r="I50" t="s">
         <v>102</v>
       </c>
-      <c r="J50" t="n">
-        <v>32015.0</v>
+      <c r="J50">
+        <v>32015</v>
       </c>
       <c r="K50" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -2372,8 +2693,8 @@
       <c r="D51" t="s">
         <v>16</v>
       </c>
-      <c r="E51" t="n">
-        <v>-0.03172704021759478</v>
+      <c r="E51">
+        <v>-3.172704021759478E-2</v>
       </c>
       <c r="F51" t="s">
         <v>17</v>
@@ -2387,14 +2708,14 @@
       <c r="I51" t="s">
         <v>102</v>
       </c>
-      <c r="J51" t="n">
-        <v>32015.0</v>
+      <c r="J51">
+        <v>32015</v>
       </c>
       <c r="K51" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -2407,8 +2728,8 @@
       <c r="D52" t="s">
         <v>16</v>
       </c>
-      <c r="E52" t="n">
-        <v>-0.01861643398426471</v>
+      <c r="E52">
+        <v>-1.861643398426471E-2</v>
       </c>
       <c r="F52" t="s">
         <v>17</v>
@@ -2422,14 +2743,14 @@
       <c r="I52" t="s">
         <v>102</v>
       </c>
-      <c r="J52" t="n">
-        <v>32015.0</v>
+      <c r="J52">
+        <v>32015</v>
       </c>
       <c r="K52" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -2442,8 +2763,8 @@
       <c r="D53" t="s">
         <v>16</v>
       </c>
-      <c r="E53" t="n">
-        <v>-0.06337492354266235</v>
+      <c r="E53">
+        <v>-6.3374923542662345E-2</v>
       </c>
       <c r="F53" t="s">
         <v>17</v>
@@ -2457,14 +2778,14 @@
       <c r="I53" t="s">
         <v>102</v>
       </c>
-      <c r="J53" t="n">
-        <v>32015.0</v>
+      <c r="J53">
+        <v>32015</v>
       </c>
       <c r="K53" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -2477,8 +2798,8 @@
       <c r="D54" t="s">
         <v>16</v>
       </c>
-      <c r="E54" t="n">
-        <v>-0.2070513211288521</v>
+      <c r="E54">
+        <v>-0.20705132112885211</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
@@ -2492,14 +2813,14 @@
       <c r="I54" t="s">
         <v>102</v>
       </c>
-      <c r="J54" t="n">
-        <v>32015.0</v>
+      <c r="J54">
+        <v>32015</v>
       </c>
       <c r="K54" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -2512,8 +2833,8 @@
       <c r="D55" t="s">
         <v>16</v>
       </c>
-      <c r="E55" t="n">
-        <v>-0.1396778157159242</v>
+      <c r="E55">
+        <v>-0.13967781571592419</v>
       </c>
       <c r="F55" t="s">
         <v>17</v>
@@ -2527,14 +2848,14 @@
       <c r="I55" t="s">
         <v>102</v>
       </c>
-      <c r="J55" t="n">
-        <v>32015.0</v>
+      <c r="J55">
+        <v>32015</v>
       </c>
       <c r="K55" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -2547,8 +2868,8 @@
       <c r="D56" t="s">
         <v>16</v>
       </c>
-      <c r="E56" t="n">
-        <v>0.08034904048839252</v>
+      <c r="E56">
+        <v>8.0349040488392517E-2</v>
       </c>
       <c r="F56" t="s">
         <v>17</v>
@@ -2562,14 +2883,14 @@
       <c r="I56" t="s">
         <v>102</v>
       </c>
-      <c r="J56" t="n">
-        <v>32015.0</v>
+      <c r="J56">
+        <v>32015</v>
       </c>
       <c r="K56" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -2582,8 +2903,8 @@
       <c r="D57" t="s">
         <v>16</v>
       </c>
-      <c r="E57" t="n">
-        <v>-0.0535001374791666</v>
+      <c r="E57">
+        <v>-5.3500137479166598E-2</v>
       </c>
       <c r="F57" t="s">
         <v>17</v>
@@ -2597,14 +2918,14 @@
       <c r="I57" t="s">
         <v>102</v>
       </c>
-      <c r="J57" t="n">
-        <v>32015.0</v>
+      <c r="J57">
+        <v>32015</v>
       </c>
       <c r="K57" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -2617,8 +2938,8 @@
       <c r="D58" t="s">
         <v>16</v>
       </c>
-      <c r="E58" t="n">
-        <v>-0.06949785731322275</v>
+      <c r="E58">
+        <v>-6.949785731322275E-2</v>
       </c>
       <c r="F58" t="s">
         <v>17</v>
@@ -2632,14 +2953,14 @@
       <c r="I58" t="s">
         <v>102</v>
       </c>
-      <c r="J58" t="n">
-        <v>32015.0</v>
+      <c r="J58">
+        <v>32015</v>
       </c>
       <c r="K58" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -2652,8 +2973,8 @@
       <c r="D59" t="s">
         <v>16</v>
       </c>
-      <c r="E59" t="n">
-        <v>-0.07991991477717214</v>
+      <c r="E59">
+        <v>-7.9919914777172141E-2</v>
       </c>
       <c r="F59" t="s">
         <v>17</v>
@@ -2667,14 +2988,14 @@
       <c r="I59" t="s">
         <v>102</v>
       </c>
-      <c r="J59" t="n">
-        <v>32015.0</v>
+      <c r="J59">
+        <v>32015</v>
       </c>
       <c r="K59" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -2687,8 +3008,8 @@
       <c r="D60" t="s">
         <v>16</v>
       </c>
-      <c r="E60" t="n">
-        <v>0.030386854797728843</v>
+      <c r="E60">
+        <v>3.0386854797728843E-2</v>
       </c>
       <c r="F60" t="s">
         <v>17</v>
@@ -2702,14 +3023,14 @@
       <c r="I60" t="s">
         <v>102</v>
       </c>
-      <c r="J60" t="n">
-        <v>32015.0</v>
+      <c r="J60">
+        <v>32015</v>
       </c>
       <c r="K60" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -2722,8 +3043,8 @@
       <c r="D61" t="s">
         <v>16</v>
       </c>
-      <c r="E61" t="n">
-        <v>-0.09293188727839047</v>
+      <c r="E61">
+        <v>-9.2931887278390468E-2</v>
       </c>
       <c r="F61" t="s">
         <v>17</v>
@@ -2737,14 +3058,14 @@
       <c r="I61" t="s">
         <v>102</v>
       </c>
-      <c r="J61" t="n">
-        <v>32015.0</v>
+      <c r="J61">
+        <v>32015</v>
       </c>
       <c r="K61" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -2757,8 +3078,8 @@
       <c r="D62" t="s">
         <v>16</v>
       </c>
-      <c r="E62" t="n">
-        <v>-0.07809005655516964</v>
+      <c r="E62">
+        <v>-7.8090056555169637E-2</v>
       </c>
       <c r="F62" t="s">
         <v>17</v>
@@ -2772,14 +3093,14 @@
       <c r="I62" t="s">
         <v>102</v>
       </c>
-      <c r="J62" t="n">
-        <v>32015.0</v>
+      <c r="J62">
+        <v>32015</v>
       </c>
       <c r="K62" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -2792,8 +3113,8 @@
       <c r="D63" t="s">
         <v>16</v>
       </c>
-      <c r="E63" t="n">
-        <v>0.008137141952101632</v>
+      <c r="E63">
+        <v>8.1371419521016324E-3</v>
       </c>
       <c r="F63" t="s">
         <v>17</v>
@@ -2807,14 +3128,14 @@
       <c r="I63" t="s">
         <v>102</v>
       </c>
-      <c r="J63" t="n">
-        <v>32015.0</v>
+      <c r="J63">
+        <v>32015</v>
       </c>
       <c r="K63" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -2827,7 +3148,7 @@
       <c r="D64" t="s">
         <v>16</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>-0.10062138673846414</v>
       </c>
       <c r="F64" t="s">
@@ -2842,14 +3163,14 @@
       <c r="I64" t="s">
         <v>102</v>
       </c>
-      <c r="J64" t="n">
-        <v>32015.0</v>
+      <c r="J64">
+        <v>32015</v>
       </c>
       <c r="K64" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -2862,8 +3183,8 @@
       <c r="D65" t="s">
         <v>16</v>
       </c>
-      <c r="E65" t="n">
-        <v>-0.01726032614777129</v>
+      <c r="E65">
+        <v>-1.7260326147771291E-2</v>
       </c>
       <c r="F65" t="s">
         <v>17</v>
@@ -2877,14 +3198,14 @@
       <c r="I65" t="s">
         <v>102</v>
       </c>
-      <c r="J65" t="n">
-        <v>32015.0</v>
+      <c r="J65">
+        <v>32015</v>
       </c>
       <c r="K65" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -2897,8 +3218,8 @@
       <c r="D66" t="s">
         <v>16</v>
       </c>
-      <c r="E66" t="n">
-        <v>0.02664560953482367</v>
+      <c r="E66">
+        <v>2.6645609534823669E-2</v>
       </c>
       <c r="F66" t="s">
         <v>17</v>
@@ -2912,14 +3233,14 @@
       <c r="I66" t="s">
         <v>102</v>
       </c>
-      <c r="J66" t="n">
-        <v>32015.0</v>
+      <c r="J66">
+        <v>32015</v>
       </c>
       <c r="K66" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -2932,8 +3253,8 @@
       <c r="D67" t="s">
         <v>16</v>
       </c>
-      <c r="E67" t="n">
-        <v>-0.007118088285104226</v>
+      <c r="E67">
+        <v>-7.1180882851042257E-3</v>
       </c>
       <c r="F67" t="s">
         <v>17</v>
@@ -2947,14 +3268,14 @@
       <c r="I67" t="s">
         <v>102</v>
       </c>
-      <c r="J67" t="n">
-        <v>32015.0</v>
+      <c r="J67">
+        <v>32015</v>
       </c>
       <c r="K67" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -2967,7 +3288,7 @@
       <c r="D68" t="s">
         <v>16</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>-0.1153853815534626</v>
       </c>
       <c r="F68" t="s">
@@ -2982,14 +3303,14 @@
       <c r="I68" t="s">
         <v>102</v>
       </c>
-      <c r="J68" t="n">
-        <v>32015.0</v>
+      <c r="J68">
+        <v>32015</v>
       </c>
       <c r="K68" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -3002,8 +3323,8 @@
       <c r="D69" t="s">
         <v>16</v>
       </c>
-      <c r="E69" t="n">
-        <v>-0.05826819810867925</v>
+      <c r="E69">
+        <v>-5.8268198108679253E-2</v>
       </c>
       <c r="F69" t="s">
         <v>17</v>
@@ -3017,14 +3338,14 @@
       <c r="I69" t="s">
         <v>102</v>
       </c>
-      <c r="J69" t="n">
-        <v>32015.0</v>
+      <c r="J69">
+        <v>32015</v>
       </c>
       <c r="K69" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -3037,8 +3358,8 @@
       <c r="D70" t="s">
         <v>16</v>
       </c>
-      <c r="E70" t="n">
-        <v>-0.0857423830906034</v>
+      <c r="E70">
+        <v>-8.5742383090603405E-2</v>
       </c>
       <c r="F70" t="s">
         <v>17</v>
@@ -3052,14 +3373,14 @@
       <c r="I70" t="s">
         <v>102</v>
       </c>
-      <c r="J70" t="n">
-        <v>32015.0</v>
+      <c r="J70">
+        <v>32015</v>
       </c>
       <c r="K70" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -3072,7 +3393,7 @@
       <c r="D71" t="s">
         <v>16</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>-0.19328850405461298</v>
       </c>
       <c r="F71" t="s">
@@ -3087,14 +3408,14 @@
       <c r="I71" t="s">
         <v>102</v>
       </c>
-      <c r="J71" t="n">
-        <v>32015.0</v>
+      <c r="J71">
+        <v>32015</v>
       </c>
       <c r="K71" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -3107,7 +3428,7 @@
       <c r="D72" t="s">
         <v>16</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>-0.10414717367979588</v>
       </c>
       <c r="F72" t="s">
@@ -3122,14 +3443,14 @@
       <c r="I72" t="s">
         <v>102</v>
       </c>
-      <c r="J72" t="n">
-        <v>32015.0</v>
+      <c r="J72">
+        <v>32015</v>
       </c>
       <c r="K72" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -3142,7 +3463,7 @@
       <c r="D73" t="s">
         <v>16</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>-0.15109786328394315</v>
       </c>
       <c r="F73" t="s">
@@ -3157,14 +3478,14 @@
       <c r="I73" t="s">
         <v>102</v>
       </c>
-      <c r="J73" t="n">
-        <v>32015.0</v>
+      <c r="J73">
+        <v>32015</v>
       </c>
       <c r="K73" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -3177,8 +3498,8 @@
       <c r="D74" t="s">
         <v>16</v>
       </c>
-      <c r="E74" t="n">
-        <v>0.00244615205521005</v>
+      <c r="E74">
+        <v>2.4461520552100501E-3</v>
       </c>
       <c r="F74" t="s">
         <v>17</v>
@@ -3192,14 +3513,14 @@
       <c r="I74" t="s">
         <v>102</v>
       </c>
-      <c r="J74" t="n">
-        <v>32015.0</v>
+      <c r="J74">
+        <v>32015</v>
       </c>
       <c r="K74" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -3212,7 +3533,7 @@
       <c r="D75" t="s">
         <v>16</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>-0.14189072675289824</v>
       </c>
       <c r="F75" t="s">
@@ -3227,14 +3548,14 @@
       <c r="I75" t="s">
         <v>102</v>
       </c>
-      <c r="J75" t="n">
-        <v>32015.0</v>
+      <c r="J75">
+        <v>32015</v>
       </c>
       <c r="K75" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -3247,7 +3568,7 @@
       <c r="D76" t="s">
         <v>16</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>-0.16164469731039524</v>
       </c>
       <c r="F76" t="s">
@@ -3262,14 +3583,14 @@
       <c r="I76" t="s">
         <v>102</v>
       </c>
-      <c r="J76" t="n">
-        <v>32015.0</v>
+      <c r="J76">
+        <v>32015</v>
       </c>
       <c r="K76" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -3282,7 +3603,7 @@
       <c r="D77" t="s">
         <v>16</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>-0.15343712216424338</v>
       </c>
       <c r="F77" t="s">
@@ -3297,14 +3618,14 @@
       <c r="I77" t="s">
         <v>102</v>
       </c>
-      <c r="J77" t="n">
-        <v>32015.0</v>
+      <c r="J77">
+        <v>32015</v>
       </c>
       <c r="K77" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -3317,7 +3638,7 @@
       <c r="D78" t="s">
         <v>16</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>-0.16480055239638047</v>
       </c>
       <c r="F78" t="s">
@@ -3332,14 +3653,14 @@
       <c r="I78" t="s">
         <v>102</v>
       </c>
-      <c r="J78" t="n">
-        <v>32015.0</v>
+      <c r="J78">
+        <v>32015</v>
       </c>
       <c r="K78" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -3352,7 +3673,7 @@
       <c r="D79" t="s">
         <v>16</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>-0.18127295473629326</v>
       </c>
       <c r="F79" t="s">
@@ -3367,14 +3688,14 @@
       <c r="I79" t="s">
         <v>102</v>
       </c>
-      <c r="J79" t="n">
-        <v>32015.0</v>
+      <c r="J79">
+        <v>32015</v>
       </c>
       <c r="K79" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -3387,8 +3708,8 @@
       <c r="D80" t="s">
         <v>16</v>
       </c>
-      <c r="E80" t="n">
-        <v>-0.07910779985266163</v>
+      <c r="E80">
+        <v>-7.9107799852661628E-2</v>
       </c>
       <c r="F80" t="s">
         <v>17</v>
@@ -3402,14 +3723,14 @@
       <c r="I80" t="s">
         <v>102</v>
       </c>
-      <c r="J80" t="n">
-        <v>32015.0</v>
+      <c r="J80">
+        <v>32015</v>
       </c>
       <c r="K80" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -3422,8 +3743,8 @@
       <c r="D81" t="s">
         <v>16</v>
       </c>
-      <c r="E81" t="n">
-        <v>-0.05968680716979674</v>
+      <c r="E81">
+        <v>-5.9686807169796741E-2</v>
       </c>
       <c r="F81" t="s">
         <v>17</v>
@@ -3437,14 +3758,14 @@
       <c r="I81" t="s">
         <v>102</v>
       </c>
-      <c r="J81" t="n">
-        <v>32015.0</v>
+      <c r="J81">
+        <v>32015</v>
       </c>
       <c r="K81" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -3457,8 +3778,8 @@
       <c r="D82" t="s">
         <v>16</v>
       </c>
-      <c r="E82" t="n">
-        <v>-0.0738268412586434</v>
+      <c r="E82">
+        <v>-7.3826841258643403E-2</v>
       </c>
       <c r="F82" t="s">
         <v>17</v>
@@ -3472,14 +3793,14 @@
       <c r="I82" t="s">
         <v>102</v>
       </c>
-      <c r="J82" t="n">
-        <v>32015.0</v>
+      <c r="J82">
+        <v>32015</v>
       </c>
       <c r="K82" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -3492,8 +3813,8 @@
       <c r="D83" t="s">
         <v>16</v>
       </c>
-      <c r="E83" t="n">
-        <v>-0.002197793174085634</v>
+      <c r="E83">
+        <v>-2.1977931740856339E-3</v>
       </c>
       <c r="F83" t="s">
         <v>17</v>
@@ -3507,27 +3828,27 @@
       <c r="I83" t="s">
         <v>102</v>
       </c>
-      <c r="J83" t="n">
-        <v>32015.0</v>
+      <c r="J83">
+        <v>32015</v>
       </c>
       <c r="K83" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3568,7 +3889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3581,8 +3902,8 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="n">
-        <v>-0.014015695271267954</v>
+      <c r="E2">
+        <v>-1.4015695271267954E-2</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -3596,20 +3917,20 @@
       <c r="I2" t="s">
         <v>102</v>
       </c>
-      <c r="J2" t="n">
-        <v>-0.07595590384085942</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.04792451329832382</v>
-      </c>
-      <c r="L2" t="n">
-        <v>32015.0</v>
+      <c r="J2">
+        <v>-7.5955903840859415E-2</v>
+      </c>
+      <c r="K2">
+        <v>4.7924513298323819E-2</v>
+      </c>
+      <c r="L2">
+        <v>32015</v>
       </c>
       <c r="M2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3622,7 +3943,7 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>-0.12854679238575614</v>
       </c>
       <c r="F3" t="s">
@@ -3637,20 +3958,20 @@
       <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>-0.18160794548493225</v>
       </c>
-      <c r="K3" t="n">
-        <v>-0.07548563928657498</v>
-      </c>
-      <c r="L3" t="n">
-        <v>32015.0</v>
+      <c r="K3">
+        <v>-7.5485639286574979E-2</v>
+      </c>
+      <c r="L3">
+        <v>32015</v>
       </c>
       <c r="M3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3663,8 +3984,8 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="n">
-        <v>-0.003384239987137454</v>
+      <c r="E4">
+        <v>-3.3842399871374541E-3</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -3678,20 +3999,20 @@
       <c r="I4" t="s">
         <v>102</v>
       </c>
-      <c r="J4" t="n">
-        <v>-0.09218793770092903</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.08541945772665421</v>
-      </c>
-      <c r="L4" t="n">
-        <v>32015.0</v>
+      <c r="J4">
+        <v>-9.2187937700929035E-2</v>
+      </c>
+      <c r="K4">
+        <v>8.5419457726654213E-2</v>
+      </c>
+      <c r="L4">
+        <v>32015</v>
       </c>
       <c r="M4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3704,8 +4025,8 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="n">
-        <v>-0.04392305502037982</v>
+      <c r="E5">
+        <v>-4.3923055020379818E-2</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -3719,20 +4040,20 @@
       <c r="I5" t="s">
         <v>102</v>
       </c>
-      <c r="J5" t="n">
-        <v>-0.09326421081721786</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.005418100776457775</v>
-      </c>
-      <c r="L5" t="n">
-        <v>32015.0</v>
+      <c r="J5">
+        <v>-9.3264210817217863E-2</v>
+      </c>
+      <c r="K5">
+        <v>5.4181007764577752E-3</v>
+      </c>
+      <c r="L5">
+        <v>32015</v>
       </c>
       <c r="M5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3745,7 +4066,7 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>-0.34348455952888474</v>
       </c>
       <c r="F6" t="s">
@@ -3760,20 +4081,20 @@
       <c r="I6" t="s">
         <v>18</v>
       </c>
-      <c r="J6" t="n">
-        <v>-0.3913835835112813</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-0.29558553554649</v>
-      </c>
-      <c r="L6" t="n">
-        <v>32015.0</v>
+      <c r="J6">
+        <v>-0.39138358351128127</v>
+      </c>
+      <c r="K6">
+        <v>-0.29558553554648997</v>
+      </c>
+      <c r="L6">
+        <v>32015</v>
       </c>
       <c r="M6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3786,7 +4107,7 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-0.32282700207911724</v>
       </c>
       <c r="F7" t="s">
@@ -3801,20 +4122,20 @@
       <c r="I7" t="s">
         <v>18</v>
       </c>
-      <c r="J7" t="n">
-        <v>-0.3730443403282067</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J7">
+        <v>-0.37304434032820671</v>
+      </c>
+      <c r="K7">
         <v>-0.27260966383002244</v>
       </c>
-      <c r="L7" t="n">
-        <v>32015.0</v>
+      <c r="L7">
+        <v>32015</v>
       </c>
       <c r="M7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3827,8 +4148,8 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.049886443916233605</v>
+      <c r="E8">
+        <v>4.9886443916233605E-2</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -3842,20 +4163,20 @@
       <c r="I8" t="s">
         <v>102</v>
       </c>
-      <c r="J8" t="n">
-        <v>0.0011668602344395151</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09860602759802618</v>
-      </c>
-      <c r="L8" t="n">
-        <v>32015.0</v>
+      <c r="J8">
+        <v>1.1668602344395151E-3</v>
+      </c>
+      <c r="K8">
+        <v>9.8606027598026183E-2</v>
+      </c>
+      <c r="L8">
+        <v>32015</v>
       </c>
       <c r="M8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3868,8 +4189,8 @@
       <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="n">
-        <v>-0.09354976596732469</v>
+      <c r="E9">
+        <v>-9.3549765967324686E-2</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -3883,20 +4204,20 @@
       <c r="I9" t="s">
         <v>18</v>
       </c>
-      <c r="J9" t="n">
-        <v>-0.149693882996678</v>
-      </c>
-      <c r="K9" t="n">
-        <v>-0.03740564893797204</v>
-      </c>
-      <c r="L9" t="n">
-        <v>32015.0</v>
+      <c r="J9">
+        <v>-0.14969388299667799</v>
+      </c>
+      <c r="K9">
+        <v>-3.740564893797204E-2</v>
+      </c>
+      <c r="L9">
+        <v>32015</v>
       </c>
       <c r="M9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3909,8 +4230,8 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.057462928888095365</v>
+      <c r="E10">
+        <v>5.7462928888095365E-2</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
@@ -3924,20 +4245,20 @@
       <c r="I10" t="s">
         <v>102</v>
       </c>
-      <c r="J10" t="n">
-        <v>0.004936637840559616</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J10">
+        <v>4.9366378405596156E-3</v>
+      </c>
+      <c r="K10">
         <v>0.10998921993563199</v>
       </c>
-      <c r="L10" t="n">
-        <v>32015.0</v>
+      <c r="L10">
+        <v>32015</v>
       </c>
       <c r="M10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3950,8 +4271,8 @@
       <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="n">
-        <v>-0.06218533652675796</v>
+      <c r="E11">
+        <v>-6.2185336526757957E-2</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -3965,20 +4286,20 @@
       <c r="I11" t="s">
         <v>102</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>-0.14934801282522667</v>
       </c>
-      <c r="K11" t="n">
-        <v>0.024977339771710516</v>
-      </c>
-      <c r="L11" t="n">
-        <v>32015.0</v>
+      <c r="K11">
+        <v>2.4977339771710516E-2</v>
+      </c>
+      <c r="L11">
+        <v>32015</v>
       </c>
       <c r="M11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3991,8 +4312,8 @@
       <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" t="n">
-        <v>0.06939893211029229</v>
+      <c r="E12">
+        <v>6.9398932110292286E-2</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -4006,20 +4327,20 @@
       <c r="I12" t="s">
         <v>102</v>
       </c>
-      <c r="J12" t="n">
-        <v>-0.0025280557471658582</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J12">
+        <v>-2.5280557471658582E-3</v>
+      </c>
+      <c r="K12">
         <v>0.14132591996775035</v>
       </c>
-      <c r="L12" t="n">
-        <v>32015.0</v>
+      <c r="L12">
+        <v>32015</v>
       </c>
       <c r="M12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4032,8 +4353,8 @@
       <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" t="n">
-        <v>-0.040955348915254486</v>
+      <c r="E13">
+        <v>-4.0955348915254486E-2</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -4047,20 +4368,20 @@
       <c r="I13" t="s">
         <v>102</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>-0.10351264349719205</v>
       </c>
-      <c r="K13" t="n">
-        <v>0.021601945666683463</v>
-      </c>
-      <c r="L13" t="n">
-        <v>32015.0</v>
+      <c r="K13">
+        <v>2.1601945666683463E-2</v>
+      </c>
+      <c r="L13">
+        <v>32015</v>
       </c>
       <c r="M13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4073,8 +4394,8 @@
       <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="E14" t="n">
-        <v>0.050482369439349827</v>
+      <c r="E14">
+        <v>5.0482369439349827E-2</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -4088,20 +4409,20 @@
       <c r="I14" t="s">
         <v>102</v>
       </c>
-      <c r="J14" t="n">
-        <v>-0.04456625043276594</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J14">
+        <v>-4.4566250432765943E-2</v>
+      </c>
+      <c r="K14">
         <v>0.14553098931146574</v>
       </c>
-      <c r="L14" t="n">
-        <v>32015.0</v>
+      <c r="L14">
+        <v>32015</v>
       </c>
       <c r="M14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -4114,8 +4435,8 @@
       <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="E15" t="n">
-        <v>-0.08545736502296561</v>
+      <c r="E15">
+        <v>-8.5457365022965609E-2</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
@@ -4129,20 +4450,20 @@
       <c r="I15" t="s">
         <v>18</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>-0.14707689066436896</v>
       </c>
-      <c r="K15" t="n">
-        <v>-0.023837839381562295</v>
-      </c>
-      <c r="L15" t="n">
-        <v>32015.0</v>
+      <c r="K15">
+        <v>-2.3837839381562295E-2</v>
+      </c>
+      <c r="L15">
+        <v>32015</v>
       </c>
       <c r="M15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -4155,8 +4476,8 @@
       <c r="D16" t="s">
         <v>16</v>
       </c>
-      <c r="E16" t="n">
-        <v>0.04597946761836078</v>
+      <c r="E16">
+        <v>4.5979467618360782E-2</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -4170,20 +4491,20 @@
       <c r="I16" t="s">
         <v>102</v>
       </c>
-      <c r="J16" t="n">
-        <v>-0.008106866673556104</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J16">
+        <v>-8.106866673556104E-3</v>
+      </c>
+      <c r="K16">
         <v>0.10006580191027835</v>
       </c>
-      <c r="L16" t="n">
-        <v>32015.0</v>
+      <c r="L16">
+        <v>32015</v>
       </c>
       <c r="M16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -4196,8 +4517,8 @@
       <c r="D17" t="s">
         <v>16</v>
       </c>
-      <c r="E17" t="n">
-        <v>0.06001737542870279</v>
+      <c r="E17">
+        <v>6.0017375428702793E-2</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -4211,20 +4532,20 @@
       <c r="I17" t="s">
         <v>102</v>
       </c>
-      <c r="J17" t="n">
-        <v>-0.004580264876310247</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1246150157337158</v>
-      </c>
-      <c r="L17" t="n">
-        <v>32015.0</v>
+      <c r="J17">
+        <v>-4.5802648763102471E-3</v>
+      </c>
+      <c r="K17">
+        <v>0.12461501573371581</v>
+      </c>
+      <c r="L17">
+        <v>32015</v>
       </c>
       <c r="M17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -4237,8 +4558,8 @@
       <c r="D18" t="s">
         <v>16</v>
       </c>
-      <c r="E18" t="n">
-        <v>0.07021501809174267</v>
+      <c r="E18">
+        <v>7.0215018091742673E-2</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -4252,20 +4573,20 @@
       <c r="I18" t="s">
         <v>102</v>
       </c>
-      <c r="J18" t="n">
-        <v>0.009418788969670654</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1310112472138145</v>
-      </c>
-      <c r="L18" t="n">
-        <v>32015.0</v>
+      <c r="J18">
+        <v>9.4187889696706537E-3</v>
+      </c>
+      <c r="K18">
+        <v>0.13101124721381449</v>
+      </c>
+      <c r="L18">
+        <v>32015</v>
       </c>
       <c r="M18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -4278,8 +4599,8 @@
       <c r="D19" t="s">
         <v>16</v>
       </c>
-      <c r="E19" t="n">
-        <v>-0.05993759758879773</v>
+      <c r="E19">
+        <v>-5.9937597588797728E-2</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
@@ -4293,20 +4614,20 @@
       <c r="I19" t="s">
         <v>102</v>
       </c>
-      <c r="J19" t="n">
-        <v>-0.1149034392179653</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-0.004971755959630522</v>
-      </c>
-      <c r="L19" t="n">
-        <v>32015.0</v>
+      <c r="J19">
+        <v>-0.11490343921796529</v>
+      </c>
+      <c r="K19">
+        <v>-4.9717559596305222E-3</v>
+      </c>
+      <c r="L19">
+        <v>32015</v>
       </c>
       <c r="M19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -4319,8 +4640,8 @@
       <c r="D20" t="s">
         <v>16</v>
       </c>
-      <c r="E20" t="n">
-        <v>0.03558214466196285</v>
+      <c r="E20">
+        <v>3.5582144661962849E-2</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
@@ -4334,20 +4655,20 @@
       <c r="I20" t="s">
         <v>102</v>
       </c>
-      <c r="J20" t="n">
-        <v>-0.04105097394725179</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J20">
+        <v>-4.1050973947251788E-2</v>
+      </c>
+      <c r="K20">
         <v>0.11221526327117767</v>
       </c>
-      <c r="L20" t="n">
-        <v>32015.0</v>
+      <c r="L20">
+        <v>32015</v>
       </c>
       <c r="M20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -4360,7 +4681,7 @@
       <c r="D21" t="s">
         <v>16</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>0.17841389120256218</v>
       </c>
       <c r="F21" t="s">
@@ -4375,20 +4696,20 @@
       <c r="I21" t="s">
         <v>18</v>
       </c>
-      <c r="J21" t="n">
-        <v>0.114419934142385</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J21">
+        <v>0.11441993414238499</v>
+      </c>
+      <c r="K21">
         <v>0.24240784826273848</v>
       </c>
-      <c r="L21" t="n">
-        <v>32015.0</v>
+      <c r="L21">
+        <v>32015</v>
       </c>
       <c r="M21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -4401,8 +4722,8 @@
       <c r="D22" t="s">
         <v>16</v>
       </c>
-      <c r="E22" t="n">
-        <v>0.00933717012291127</v>
+      <c r="E22">
+        <v>9.3371701229112702E-3</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
@@ -4416,20 +4737,20 @@
       <c r="I22" t="s">
         <v>102</v>
       </c>
-      <c r="J22" t="n">
-        <v>-0.05448275693689474</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.07315709718271717</v>
-      </c>
-      <c r="L22" t="n">
-        <v>32015.0</v>
+      <c r="J22">
+        <v>-5.4482756936894743E-2</v>
+      </c>
+      <c r="K22">
+        <v>7.3157097182717165E-2</v>
+      </c>
+      <c r="L22">
+        <v>32015</v>
       </c>
       <c r="M22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -4442,8 +4763,8 @@
       <c r="D23" t="s">
         <v>16</v>
       </c>
-      <c r="E23" t="n">
-        <v>0.06110516492931147</v>
+      <c r="E23">
+        <v>6.1105164929311472E-2</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
@@ -4457,20 +4778,20 @@
       <c r="I23" t="s">
         <v>102</v>
       </c>
-      <c r="J23" t="n">
-        <v>0.010052636006315861</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J23">
+        <v>1.0052636006315861E-2</v>
+      </c>
+      <c r="K23">
         <v>0.11215769385230662</v>
       </c>
-      <c r="L23" t="n">
-        <v>32015.0</v>
+      <c r="L23">
+        <v>32015</v>
       </c>
       <c r="M23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -4483,8 +4804,8 @@
       <c r="D24" t="s">
         <v>16</v>
       </c>
-      <c r="E24" t="n">
-        <v>-0.06954201469016623</v>
+      <c r="E24">
+        <v>-6.9542014690166229E-2</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
@@ -4498,20 +4819,20 @@
       <c r="I24" t="s">
         <v>102</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>-0.15814894716980402</v>
       </c>
-      <c r="K24" t="n">
-        <v>0.019064917789471475</v>
-      </c>
-      <c r="L24" t="n">
-        <v>32015.0</v>
+      <c r="K24">
+        <v>1.9064917789471475E-2</v>
+      </c>
+      <c r="L24">
+        <v>32015</v>
       </c>
       <c r="M24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -4524,8 +4845,8 @@
       <c r="D25" t="s">
         <v>16</v>
       </c>
-      <c r="E25" t="n">
-        <v>-0.02198024606367104</v>
+      <c r="E25">
+        <v>-2.1980246063671039E-2</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
@@ -4539,20 +4860,20 @@
       <c r="I25" t="s">
         <v>102</v>
       </c>
-      <c r="J25" t="n">
-        <v>-0.08116449488325278</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.03720400275591092</v>
-      </c>
-      <c r="L25" t="n">
-        <v>32015.0</v>
+      <c r="J25">
+        <v>-8.116449488325278E-2</v>
+      </c>
+      <c r="K25">
+        <v>3.7204002755910917E-2</v>
+      </c>
+      <c r="L25">
+        <v>32015</v>
       </c>
       <c r="M25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -4565,8 +4886,8 @@
       <c r="D26" t="s">
         <v>16</v>
       </c>
-      <c r="E26" t="n">
-        <v>-0.07133633613165315</v>
+      <c r="E26">
+        <v>-7.1336336131653147E-2</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -4580,20 +4901,20 @@
       <c r="I26" t="s">
         <v>102</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>-0.14583502252363612</v>
       </c>
-      <c r="K26" t="n">
-        <v>0.0031623502603286696</v>
-      </c>
-      <c r="L26" t="n">
-        <v>32015.0</v>
+      <c r="K26">
+        <v>3.1623502603286696E-3</v>
+      </c>
+      <c r="L26">
+        <v>32015</v>
       </c>
       <c r="M26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -4606,8 +4927,8 @@
       <c r="D27" t="s">
         <v>16</v>
       </c>
-      <c r="E27" t="n">
-        <v>0.020501934611610068</v>
+      <c r="E27">
+        <v>2.0501934611610068E-2</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
@@ -4621,20 +4942,20 @@
       <c r="I27" t="s">
         <v>102</v>
       </c>
-      <c r="J27" t="n">
-        <v>-0.03551542215120794</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.07651929137442819</v>
-      </c>
-      <c r="L27" t="n">
-        <v>32015.0</v>
+      <c r="J27">
+        <v>-3.551542215120794E-2</v>
+      </c>
+      <c r="K27">
+        <v>7.6519291374428186E-2</v>
+      </c>
+      <c r="L27">
+        <v>32015</v>
       </c>
       <c r="M27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -4647,8 +4968,8 @@
       <c r="D28" t="s">
         <v>16</v>
       </c>
-      <c r="E28" t="n">
-        <v>-0.015347417133124408</v>
+      <c r="E28">
+        <v>-1.5347417133124408E-2</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
@@ -4662,20 +4983,20 @@
       <c r="I28" t="s">
         <v>102</v>
       </c>
-      <c r="J28" t="n">
-        <v>-0.07347989794954472</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.042785063683296105</v>
-      </c>
-      <c r="L28" t="n">
-        <v>32015.0</v>
+      <c r="J28">
+        <v>-7.3479897949544723E-2</v>
+      </c>
+      <c r="K28">
+        <v>4.2785063683296105E-2</v>
+      </c>
+      <c r="L28">
+        <v>32015</v>
       </c>
       <c r="M28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -4688,8 +5009,8 @@
       <c r="D29" t="s">
         <v>16</v>
       </c>
-      <c r="E29" t="n">
-        <v>-0.0048541006008385144</v>
+      <c r="E29">
+        <v>-4.8541006008385144E-3</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
@@ -4703,20 +5024,20 @@
       <c r="I29" t="s">
         <v>102</v>
       </c>
-      <c r="J29" t="n">
-        <v>-0.06097108768062741</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.05126288647895069</v>
-      </c>
-      <c r="L29" t="n">
-        <v>32015.0</v>
+      <c r="J29">
+        <v>-6.0971087680627409E-2</v>
+      </c>
+      <c r="K29">
+        <v>5.1262886478950692E-2</v>
+      </c>
+      <c r="L29">
+        <v>32015</v>
       </c>
       <c r="M29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -4729,8 +5050,8 @@
       <c r="D30" t="s">
         <v>16</v>
       </c>
-      <c r="E30" t="n">
-        <v>0.00163255408070235</v>
+      <c r="E30">
+        <v>1.63255408070235E-3</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
@@ -4744,20 +5065,20 @@
       <c r="I30" t="s">
         <v>102</v>
       </c>
-      <c r="J30" t="n">
-        <v>-0.057643017039578706</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.060908125200983404</v>
-      </c>
-      <c r="L30" t="n">
-        <v>32015.0</v>
+      <c r="J30">
+        <v>-5.7643017039578706E-2</v>
+      </c>
+      <c r="K30">
+        <v>6.0908125200983404E-2</v>
+      </c>
+      <c r="L30">
+        <v>32015</v>
       </c>
       <c r="M30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -4770,8 +5091,8 @@
       <c r="D31" t="s">
         <v>16</v>
       </c>
-      <c r="E31" t="n">
-        <v>-0.03048389647002325</v>
+      <c r="E31">
+        <v>-3.0483896470023249E-2</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
@@ -4785,20 +5106,20 @@
       <c r="I31" t="s">
         <v>102</v>
       </c>
-      <c r="J31" t="n">
-        <v>-0.09591622410987016</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.03494843116982351</v>
-      </c>
-      <c r="L31" t="n">
-        <v>32015.0</v>
+      <c r="J31">
+        <v>-9.5916224109870163E-2</v>
+      </c>
+      <c r="K31">
+        <v>3.4948431169823511E-2</v>
+      </c>
+      <c r="L31">
+        <v>32015</v>
       </c>
       <c r="M31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -4811,8 +5132,8 @@
       <c r="D32" t="s">
         <v>16</v>
       </c>
-      <c r="E32" t="n">
-        <v>-6.242946721048055E-4</v>
+      <c r="E32">
+        <v>-6.2429467210480547E-4</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
@@ -4826,20 +5147,20 @@
       <c r="I32" t="s">
         <v>102</v>
       </c>
-      <c r="J32" t="n">
-        <v>-0.07940399612296199</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.07815540677875239</v>
-      </c>
-      <c r="L32" t="n">
-        <v>32015.0</v>
+      <c r="J32">
+        <v>-7.9403996122961992E-2</v>
+      </c>
+      <c r="K32">
+        <v>7.8155406778752393E-2</v>
+      </c>
+      <c r="L32">
+        <v>32015</v>
       </c>
       <c r="M32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -4852,8 +5173,8 @@
       <c r="D33" t="s">
         <v>16</v>
       </c>
-      <c r="E33" t="n">
-        <v>-0.05229416652374229</v>
+      <c r="E33">
+        <v>-5.2294166523742289E-2</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -4867,20 +5188,20 @@
       <c r="I33" t="s">
         <v>102</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>-0.13010275164151</v>
       </c>
-      <c r="K33" t="n">
-        <v>0.025514418594024812</v>
-      </c>
-      <c r="L33" t="n">
-        <v>32015.0</v>
+      <c r="K33">
+        <v>2.5514418594024812E-2</v>
+      </c>
+      <c r="L33">
+        <v>32015</v>
       </c>
       <c r="M33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -4893,8 +5214,8 @@
       <c r="D34" t="s">
         <v>16</v>
       </c>
-      <c r="E34" t="n">
-        <v>-0.01338419681922099</v>
+      <c r="E34">
+        <v>-1.3384196819220991E-2</v>
       </c>
       <c r="F34" t="s">
         <v>17</v>
@@ -4908,20 +5229,20 @@
       <c r="I34" t="s">
         <v>102</v>
       </c>
-      <c r="J34" t="n">
-        <v>-0.0691111086734191</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.042342715034977024</v>
-      </c>
-      <c r="L34" t="n">
-        <v>32015.0</v>
+      <c r="J34">
+        <v>-6.9111108673419103E-2</v>
+      </c>
+      <c r="K34">
+        <v>4.2342715034977024E-2</v>
+      </c>
+      <c r="L34">
+        <v>32015</v>
       </c>
       <c r="M34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -4934,8 +5255,8 @@
       <c r="D35" t="s">
         <v>16</v>
       </c>
-      <c r="E35" t="n">
-        <v>0.026356719997130143</v>
+      <c r="E35">
+        <v>2.6356719997130143E-2</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
@@ -4949,20 +5270,20 @@
       <c r="I35" t="s">
         <v>102</v>
       </c>
-      <c r="J35" t="n">
-        <v>-0.04207693885889029</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.09479037885315086</v>
-      </c>
-      <c r="L35" t="n">
-        <v>32015.0</v>
+      <c r="J35">
+        <v>-4.2076938858890293E-2</v>
+      </c>
+      <c r="K35">
+        <v>9.4790378853150864E-2</v>
+      </c>
+      <c r="L35">
+        <v>32015</v>
       </c>
       <c r="M35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -4975,8 +5296,8 @@
       <c r="D36" t="s">
         <v>16</v>
       </c>
-      <c r="E36" t="n">
-        <v>-0.0058719731071252505</v>
+      <c r="E36">
+        <v>-5.8719731071252505E-3</v>
       </c>
       <c r="F36" t="s">
         <v>17</v>
@@ -4990,20 +5311,20 @@
       <c r="I36" t="s">
         <v>102</v>
       </c>
-      <c r="J36" t="n">
-        <v>-0.1047714642895951</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.09302751807534484</v>
-      </c>
-      <c r="L36" t="n">
-        <v>32015.0</v>
+      <c r="J36">
+        <v>-0.10477146428959511</v>
+      </c>
+      <c r="K36">
+        <v>9.3027518075344845E-2</v>
+      </c>
+      <c r="L36">
+        <v>32015</v>
       </c>
       <c r="M36" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -5016,8 +5337,8 @@
       <c r="D37" t="s">
         <v>16</v>
       </c>
-      <c r="E37" t="n">
-        <v>0.03596036669651632</v>
+      <c r="E37">
+        <v>3.5960366696516317E-2</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
@@ -5031,20 +5352,20 @@
       <c r="I37" t="s">
         <v>102</v>
       </c>
-      <c r="J37" t="n">
-        <v>-0.030461725941223282</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J37">
+        <v>-3.0461725941223282E-2</v>
+      </c>
+      <c r="K37">
         <v>0.1023824593342556</v>
       </c>
-      <c r="L37" t="n">
-        <v>32015.0</v>
+      <c r="L37">
+        <v>32015</v>
       </c>
       <c r="M37" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -5057,8 +5378,8 @@
       <c r="D38" t="s">
         <v>16</v>
       </c>
-      <c r="E38" t="n">
-        <v>-0.03536827734708993</v>
+      <c r="E38">
+        <v>-3.536827734708993E-2</v>
       </c>
       <c r="F38" t="s">
         <v>17</v>
@@ -5072,20 +5393,20 @@
       <c r="I38" t="s">
         <v>102</v>
       </c>
-      <c r="J38" t="n">
-        <v>-0.09734781744084033</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.026611262746660466</v>
-      </c>
-      <c r="L38" t="n">
-        <v>32015.0</v>
+      <c r="J38">
+        <v>-9.7347817440840326E-2</v>
+      </c>
+      <c r="K38">
+        <v>2.6611262746660466E-2</v>
+      </c>
+      <c r="L38">
+        <v>32015</v>
       </c>
       <c r="M38" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -5098,8 +5419,8 @@
       <c r="D39" t="s">
         <v>16</v>
       </c>
-      <c r="E39" t="n">
-        <v>0.05653075461313836</v>
+      <c r="E39">
+        <v>5.6530754613138362E-2</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
@@ -5113,20 +5434,20 @@
       <c r="I39" t="s">
         <v>102</v>
       </c>
-      <c r="J39" t="n">
-        <v>-0.016602014478035797</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.1296635237043124</v>
-      </c>
-      <c r="L39" t="n">
-        <v>32015.0</v>
+      <c r="J39">
+        <v>-1.6602014478035797E-2</v>
+      </c>
+      <c r="K39">
+        <v>0.12966352370431239</v>
+      </c>
+      <c r="L39">
+        <v>32015</v>
       </c>
       <c r="M39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -5139,8 +5460,8 @@
       <c r="D40" t="s">
         <v>16</v>
       </c>
-      <c r="E40" t="n">
-        <v>0.012260750894439575</v>
+      <c r="E40">
+        <v>1.2260750894439575E-2</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
@@ -5154,20 +5475,20 @@
       <c r="I40" t="s">
         <v>102</v>
       </c>
-      <c r="J40" t="n">
-        <v>-0.04435866553466902</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.06888016732354824</v>
-      </c>
-      <c r="L40" t="n">
-        <v>32015.0</v>
+      <c r="J40">
+        <v>-4.4358665534669023E-2</v>
+      </c>
+      <c r="K40">
+        <v>6.8880167323548236E-2</v>
+      </c>
+      <c r="L40">
+        <v>32015</v>
       </c>
       <c r="M40" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -5180,8 +5501,8 @@
       <c r="D41" t="s">
         <v>16</v>
       </c>
-      <c r="E41" t="n">
-        <v>5.300643361758229E-4</v>
+      <c r="E41">
+        <v>5.3006433617582287E-4</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
@@ -5195,20 +5516,20 @@
       <c r="I41" t="s">
         <v>102</v>
       </c>
-      <c r="J41" t="n">
-        <v>-0.0020477559577001293</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.003107884630051805</v>
-      </c>
-      <c r="L41" t="n">
-        <v>32015.0</v>
+      <c r="J41">
+        <v>-2.0477559577001293E-3</v>
+      </c>
+      <c r="K41">
+        <v>3.107884630051805E-3</v>
+      </c>
+      <c r="L41">
+        <v>32015</v>
       </c>
       <c r="M41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -5221,8 +5542,8 @@
       <c r="D42" t="s">
         <v>16</v>
       </c>
-      <c r="E42" t="n">
-        <v>4.142212194598881E-4</v>
+      <c r="E42">
+        <v>4.1422121945988808E-4</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -5236,33 +5557,38 @@
       <c r="I42" t="s">
         <v>102</v>
       </c>
-      <c r="J42" t="n">
-        <v>-0.01227190411426069</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.013100346553180446</v>
-      </c>
-      <c r="L42" t="n">
-        <v>32015.0</v>
+      <c r="J42">
+        <v>-1.227190411426069E-2</v>
+      </c>
+      <c r="K42">
+        <v>1.3100346553180446E-2</v>
+      </c>
+      <c r="L42">
+        <v>32015</v>
       </c>
       <c r="M42" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5303,7 +5629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -5314,10 +5640,10 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.006594988353231676</v>
+        <v>105</v>
+      </c>
+      <c r="E2">
+        <v>-9.6113784107525191E-3</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -5331,20 +5657,20 @@
       <c r="I2" t="s">
         <v>102</v>
       </c>
-      <c r="J2" t="n">
-        <v>-0.011064255098148613</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.024254231804611972</v>
-      </c>
-      <c r="L2" t="n">
-        <v>825.0</v>
+      <c r="J2">
+        <v>-3.8188728895033157E-2</v>
+      </c>
+      <c r="K2">
+        <v>1.8965972073528105E-2</v>
+      </c>
+      <c r="L2">
+        <v>586</v>
       </c>
       <c r="M2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -5355,10 +5681,10 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.009611378410752519</v>
+        <v>109</v>
+      </c>
+      <c r="E3">
+        <v>7.8712694956496146E-4</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -5372,20 +5698,20 @@
       <c r="I3" t="s">
         <v>102</v>
       </c>
-      <c r="J3" t="n">
-        <v>-0.03818872889503316</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.018965972073528105</v>
-      </c>
-      <c r="L3" t="n">
-        <v>586.0</v>
+      <c r="J3">
+        <v>-1.3495129515134008E-3</v>
+      </c>
+      <c r="K3">
+        <v>2.9237668506433244E-3</v>
+      </c>
+      <c r="L3">
+        <v>11215</v>
       </c>
       <c r="M3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -5398,8 +5724,8 @@
       <c r="D4" t="s">
         <v>106</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.0026443658387612</v>
+      <c r="E4">
+        <v>2.6443658387611999E-3</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -5413,20 +5739,20 @@
       <c r="I4" t="s">
         <v>102</v>
       </c>
-      <c r="J4" t="n">
-        <v>-0.0058893676306308925</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.011178099308153293</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1573.0</v>
+      <c r="J4">
+        <v>-5.8893676306308925E-3</v>
+      </c>
+      <c r="K4">
+        <v>1.1178099308153293E-2</v>
+      </c>
+      <c r="L4">
+        <v>1573</v>
       </c>
       <c r="M4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -5437,10 +5763,10 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.01041977405224885</v>
+        <v>112</v>
+      </c>
+      <c r="E5">
+        <v>5.503143929618988E-3</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -5454,20 +5780,20 @@
       <c r="I5" t="s">
         <v>102</v>
       </c>
-      <c r="J5" t="n">
-        <v>-0.01952367223731434</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.040363220341812035</v>
-      </c>
-      <c r="L5" t="n">
-        <v>173.0</v>
+      <c r="J5">
+        <v>-4.3675369329836573E-3</v>
+      </c>
+      <c r="K5">
+        <v>1.5373824792221616E-2</v>
+      </c>
+      <c r="L5">
+        <v>1362</v>
       </c>
       <c r="M5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -5478,10 +5804,10 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.01271394119309391</v>
+        <v>110</v>
+      </c>
+      <c r="E6">
+        <v>5.5539197108634602E-3</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -5493,22 +5819,22 @@
         <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.007687609536023729</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.017740272850164066</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4829.0</v>
+        <v>102</v>
+      </c>
+      <c r="J6">
+        <v>2.3015501297249906E-4</v>
+      </c>
+      <c r="K6">
+        <v>1.0877684408754437E-2</v>
+      </c>
+      <c r="L6">
+        <v>2027</v>
       </c>
       <c r="M6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -5519,10 +5845,10 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" t="n">
-        <v>7.871269495649615E-4</v>
+        <v>104</v>
+      </c>
+      <c r="E7">
+        <v>6.5949883532316761E-3</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -5536,20 +5862,20 @@
       <c r="I7" t="s">
         <v>102</v>
       </c>
-      <c r="J7" t="n">
-        <v>-0.0013495129515134008</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.0029237668506433244</v>
-      </c>
-      <c r="L7" t="n">
-        <v>11215.0</v>
+      <c r="J7">
+        <v>-1.1064255098148613E-2</v>
+      </c>
+      <c r="K7">
+        <v>2.4254231804611972E-2</v>
+      </c>
+      <c r="L7">
+        <v>825</v>
       </c>
       <c r="M7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -5560,37 +5886,37 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.00555391971086346</v>
+        <v>107</v>
+      </c>
+      <c r="E8">
+        <v>1.0419774052248851E-2</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I8" t="s">
         <v>102</v>
       </c>
-      <c r="J8" t="n">
-        <v>2.3015501297249906E-4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.010877684408754437</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2027.0</v>
+      <c r="J8">
+        <v>-1.9523672237314341E-2</v>
+      </c>
+      <c r="K8">
+        <v>4.0363220341812035E-2</v>
+      </c>
+      <c r="L8">
+        <v>173</v>
       </c>
       <c r="M8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -5601,10 +5927,10 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.01305371599436529</v>
+        <v>108</v>
+      </c>
+      <c r="E9">
+        <v>1.271394119309391E-2</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -5618,20 +5944,20 @@
       <c r="I9" t="s">
         <v>18</v>
       </c>
-      <c r="J9" t="n">
-        <v>0.009741856905543439</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.01636557508318719</v>
-      </c>
-      <c r="L9" t="n">
-        <v>9425.0</v>
+      <c r="J9">
+        <v>7.6876095360237286E-3</v>
+      </c>
+      <c r="K9">
+        <v>1.7740272850164066E-2</v>
+      </c>
+      <c r="L9">
+        <v>4829</v>
       </c>
       <c r="M9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -5642,50 +5968,57 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.005503143929618988</v>
+        <v>111</v>
+      </c>
+      <c r="E10">
+        <v>1.305371599436529E-2</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
-      </c>
-      <c r="J10" t="n">
-        <v>-0.004367536932983657</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.015373824792221616</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1362.0</v>
+        <v>18</v>
+      </c>
+      <c r="J10">
+        <v>9.741856905543439E-3</v>
+      </c>
+      <c r="K10">
+        <v>1.636557508318719E-2</v>
+      </c>
+      <c r="L10">
+        <v>9425</v>
       </c>
       <c r="M10" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0001-0000-0300-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L10">
+      <sortCondition ref="E1:E10"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5726,7 +6059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -5737,10 +6070,10 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.02339583910167038</v>
+        <v>138</v>
+      </c>
+      <c r="E2">
+        <v>-3.2502473093265101E-2</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -5749,25 +6082,25 @@
         <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
         <v>102</v>
       </c>
-      <c r="J2" t="n">
-        <v>-0.0022002950643589154</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.048991973267699676</v>
-      </c>
-      <c r="L2" t="n">
-        <v>663.0</v>
+      <c r="J2">
+        <v>-5.7299091121831555E-2</v>
+      </c>
+      <c r="K2">
+        <v>-7.7058550646985739E-3</v>
+      </c>
+      <c r="L2">
+        <v>570</v>
       </c>
       <c r="M2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -5778,10 +6111,10 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.015857969837931692</v>
+        <v>139</v>
+      </c>
+      <c r="E3">
+        <v>-2.1472659511321775E-2</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -5793,22 +6126,22 @@
         <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.009372656916065694</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.02234328275979771</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2482.0</v>
+        <v>102</v>
+      </c>
+      <c r="J3">
+        <v>-3.8724604946357002E-2</v>
+      </c>
+      <c r="K3">
+        <v>-4.2207140762865365E-3</v>
+      </c>
+      <c r="L3">
+        <v>1684</v>
       </c>
       <c r="M3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -5819,16 +6152,16 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.00852271749155648</v>
+        <v>134</v>
+      </c>
+      <c r="E4">
+        <v>-1.8130411072864974E-2</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
         <v>102</v>
@@ -5836,20 +6169,20 @@
       <c r="I4" t="s">
         <v>102</v>
       </c>
-      <c r="J4" t="n">
-        <v>-0.03520575998041358</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.01816032499730061</v>
-      </c>
-      <c r="L4" t="n">
-        <v>436.0</v>
+      <c r="J4">
+        <v>-3.6330789578205479E-2</v>
+      </c>
+      <c r="K4">
+        <v>6.9967432475483149E-5</v>
+      </c>
+      <c r="L4">
+        <v>1022</v>
       </c>
       <c r="M4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -5860,10 +6193,10 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-0.015958436563536568</v>
+        <v>141</v>
+      </c>
+      <c r="E5">
+        <v>-1.6841602583662844E-2</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -5877,20 +6210,20 @@
       <c r="I5" t="s">
         <v>102</v>
       </c>
-      <c r="J5" t="n">
-        <v>-0.04457477538750322</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.012657902260430117</v>
-      </c>
-      <c r="L5" t="n">
-        <v>367.0</v>
+      <c r="J5">
+        <v>-5.2777853910949732E-2</v>
+      </c>
+      <c r="K5">
+        <v>1.9094648743624057E-2</v>
+      </c>
+      <c r="L5">
+        <v>372</v>
       </c>
       <c r="M5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -5901,10 +6234,10 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-0.005438732976104015</v>
+        <v>117</v>
+      </c>
+      <c r="E6">
+        <v>-1.5958436563536568E-2</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -5918,20 +6251,20 @@
       <c r="I6" t="s">
         <v>102</v>
       </c>
-      <c r="J6" t="n">
-        <v>-0.025887502598471782</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.015010036646263745</v>
-      </c>
-      <c r="L6" t="n">
-        <v>629.0</v>
+      <c r="J6">
+        <v>-4.4574775387503221E-2</v>
+      </c>
+      <c r="K6">
+        <v>1.2657902260430117E-2</v>
+      </c>
+      <c r="L6">
+        <v>367</v>
       </c>
       <c r="M6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -5942,37 +6275,37 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.035292376243227834</v>
+        <v>136</v>
+      </c>
+      <c r="E7">
+        <v>-9.7936919749573616E-3</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I7" t="s">
         <v>102</v>
       </c>
-      <c r="J7" t="n">
-        <v>0.002500999809815746</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.06808375267663992</v>
-      </c>
-      <c r="L7" t="n">
-        <v>312.0</v>
+      <c r="J7">
+        <v>-3.3403292428114836E-2</v>
+      </c>
+      <c r="K7">
+        <v>1.3815908478200118E-2</v>
+      </c>
+      <c r="L7">
+        <v>643</v>
       </c>
       <c r="M7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -5983,10 +6316,10 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.007437255686332663</v>
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>-9.2859385585547256E-3</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -6000,20 +6333,20 @@
       <c r="I8" t="s">
         <v>102</v>
       </c>
-      <c r="J8" t="n">
-        <v>-0.008891515257877129</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.02376602663054247</v>
-      </c>
-      <c r="L8" t="n">
-        <v>761.0</v>
+      <c r="J8">
+        <v>-2.9836106984299539E-2</v>
+      </c>
+      <c r="K8">
+        <v>1.1264229867190098E-2</v>
+      </c>
+      <c r="L8">
+        <v>879</v>
       </c>
       <c r="M8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -6024,16 +6357,16 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-0.0020946835101078505</v>
+        <v>145</v>
+      </c>
+      <c r="E9">
+        <v>-8.6274912272110288E-3</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
         <v>102</v>
@@ -6041,20 +6374,20 @@
       <c r="I9" t="s">
         <v>102</v>
       </c>
-      <c r="J9" t="n">
-        <v>-0.006747916564230141</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.002558549544014442</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1941.0</v>
+      <c r="J9">
+        <v>-1.7835986185919805E-2</v>
+      </c>
+      <c r="K9">
+        <v>5.810037314977496E-4</v>
+      </c>
+      <c r="L9">
+        <v>1006</v>
       </c>
       <c r="M9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -6065,10 +6398,10 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.007320113420556913</v>
+        <v>116</v>
+      </c>
+      <c r="E10">
+        <v>-8.5227174915564804E-3</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
@@ -6082,20 +6415,20 @@
       <c r="I10" t="s">
         <v>102</v>
       </c>
-      <c r="J10" t="n">
-        <v>-0.013563235614531412</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.02820346245564522</v>
-      </c>
-      <c r="L10" t="n">
-        <v>895.0</v>
+      <c r="J10">
+        <v>-3.520575998041358E-2</v>
+      </c>
+      <c r="K10">
+        <v>1.8160324997300609E-2</v>
+      </c>
+      <c r="L10">
+        <v>436</v>
       </c>
       <c r="M10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -6106,37 +6439,37 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.01748631818328522</v>
+        <v>133</v>
+      </c>
+      <c r="E11">
+        <v>-6.4227479564046503E-3</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.007642566518353541</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.027330069848216888</v>
-      </c>
-      <c r="L11" t="n">
-        <v>951.0</v>
+        <v>102</v>
+      </c>
+      <c r="J11">
+        <v>-1.4244681113200493E-2</v>
+      </c>
+      <c r="K11">
+        <v>1.3991852003911965E-3</v>
+      </c>
+      <c r="L11">
+        <v>901</v>
       </c>
       <c r="M11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -6147,10 +6480,10 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-0.0031628531739866838</v>
+        <v>118</v>
+      </c>
+      <c r="E12">
+        <v>-5.4387329761040153E-3</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -6164,20 +6497,20 @@
       <c r="I12" t="s">
         <v>102</v>
       </c>
-      <c r="J12" t="n">
-        <v>-0.01355835501818329</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.00723264867020992</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1279.0</v>
+      <c r="J12">
+        <v>-2.5887502598471782E-2</v>
+      </c>
+      <c r="K12">
+        <v>1.5010036646263745E-2</v>
+      </c>
+      <c r="L12">
+        <v>629</v>
       </c>
       <c r="M12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -6190,8 +6523,8 @@
       <c r="D13" t="s">
         <v>125</v>
       </c>
-      <c r="E13" t="n">
-        <v>-0.004833858277948769</v>
+      <c r="E13">
+        <v>-4.8338582779487689E-3</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -6205,20 +6538,20 @@
       <c r="I13" t="s">
         <v>102</v>
       </c>
-      <c r="J13" t="n">
-        <v>-0.02894230908424257</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.01927459252834504</v>
-      </c>
-      <c r="L13" t="n">
-        <v>582.0</v>
+      <c r="J13">
+        <v>-2.8942309084242571E-2</v>
+      </c>
+      <c r="K13">
+        <v>1.9274592528345041E-2</v>
+      </c>
+      <c r="L13">
+        <v>582</v>
       </c>
       <c r="M13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -6229,37 +6562,37 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.026239125907688086</v>
+        <v>143</v>
+      </c>
+      <c r="E14">
+        <v>-3.3124303153661723E-3</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I14" t="s">
         <v>102</v>
       </c>
-      <c r="J14" t="n">
-        <v>0.005234160947353229</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.04724409086802296</v>
-      </c>
-      <c r="L14" t="n">
-        <v>796.0</v>
+      <c r="J14">
+        <v>-1.8202975221212003E-2</v>
+      </c>
+      <c r="K14">
+        <v>1.1578114590479664E-2</v>
+      </c>
+      <c r="L14">
+        <v>864</v>
       </c>
       <c r="M14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>113</v>
       </c>
@@ -6270,10 +6603,10 @@
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-0.009285938558554726</v>
+        <v>124</v>
+      </c>
+      <c r="E15">
+        <v>-3.1628531739866838E-3</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
@@ -6287,20 +6620,20 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
-      <c r="J15" t="n">
-        <v>-0.02983610698429954</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.011264229867190098</v>
-      </c>
-      <c r="L15" t="n">
-        <v>879.0</v>
+      <c r="J15">
+        <v>-1.3558355018183289E-2</v>
+      </c>
+      <c r="K15">
+        <v>7.2326486702099201E-3</v>
+      </c>
+      <c r="L15">
+        <v>1279</v>
       </c>
       <c r="M15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -6311,37 +6644,37 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.017114583581645665</v>
+        <v>121</v>
+      </c>
+      <c r="E16">
+        <v>-2.0946835101078505E-3</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.01275259011856228</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.021476577044729245</v>
-      </c>
-      <c r="L16" t="n">
-        <v>6288.0</v>
+        <v>102</v>
+      </c>
+      <c r="J16">
+        <v>-6.7479165642301414E-3</v>
+      </c>
+      <c r="K16">
+        <v>2.5585495440144418E-3</v>
+      </c>
+      <c r="L16">
+        <v>1941</v>
       </c>
       <c r="M16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>113</v>
       </c>
@@ -6352,16 +6685,16 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.020780854311893946</v>
+        <v>131</v>
+      </c>
+      <c r="E17">
+        <v>-1.2859260788778643E-3</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="H17" t="s">
         <v>102</v>
@@ -6369,20 +6702,20 @@
       <c r="I17" t="s">
         <v>102</v>
       </c>
-      <c r="J17" t="n">
-        <v>-0.0021818094694930033</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.04374351809328092</v>
-      </c>
-      <c r="L17" t="n">
-        <v>373.0</v>
+      <c r="J17">
+        <v>-3.1107085027653875E-2</v>
+      </c>
+      <c r="K17">
+        <v>2.8535232869898151E-2</v>
+      </c>
+      <c r="L17">
+        <v>372</v>
       </c>
       <c r="M17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>113</v>
       </c>
@@ -6393,37 +6726,37 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.011355137728408429</v>
+        <v>142</v>
+      </c>
+      <c r="E18">
+        <v>-8.2010841313014517E-4</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.0028100560066103095</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.01990021945020653</v>
-      </c>
-      <c r="L18" t="n">
-        <v>886.0</v>
+        <v>102</v>
+      </c>
+      <c r="J18">
+        <v>-3.4078089416552423E-2</v>
+      </c>
+      <c r="K18">
+        <v>3.2437872590292127E-2</v>
+      </c>
+      <c r="L18">
+        <v>499</v>
       </c>
       <c r="M18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>113</v>
       </c>
@@ -6434,10 +6767,10 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-0.0012859260788778643</v>
+        <v>140</v>
+      </c>
+      <c r="E19">
+        <v>3.0080119222476707E-3</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
@@ -6451,20 +6784,20 @@
       <c r="I19" t="s">
         <v>102</v>
       </c>
-      <c r="J19" t="n">
-        <v>-0.031107085027653875</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.02853523286989815</v>
-      </c>
-      <c r="L19" t="n">
-        <v>372.0</v>
+      <c r="J19">
+        <v>-1.7166929718416803E-2</v>
+      </c>
+      <c r="K19">
+        <v>2.3182953562912147E-2</v>
+      </c>
+      <c r="L19">
+        <v>669</v>
       </c>
       <c r="M19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>113</v>
       </c>
@@ -6475,37 +6808,37 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.01517450211129885</v>
+        <v>135</v>
+      </c>
+      <c r="E20">
+        <v>6.3026721577418609E-3</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I20" t="s">
         <v>102</v>
       </c>
-      <c r="J20" t="n">
-        <v>0.003145980551256894</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.027203023671340847</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1286.0</v>
+      <c r="J20">
+        <v>-1.4881803637917239E-2</v>
+      </c>
+      <c r="K20">
+        <v>2.7487147953400945E-2</v>
+      </c>
+      <c r="L20">
+        <v>775</v>
       </c>
       <c r="M20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -6516,10 +6849,10 @@
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" t="n">
-        <v>-0.00642274795640465</v>
+        <v>122</v>
+      </c>
+      <c r="E21">
+        <v>7.3201134205569127E-3</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
@@ -6533,20 +6866,20 @@
       <c r="I21" t="s">
         <v>102</v>
       </c>
-      <c r="J21" t="n">
-        <v>-0.014244681113200493</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.0013991852003911965</v>
-      </c>
-      <c r="L21" t="n">
-        <v>901.0</v>
+      <c r="J21">
+        <v>-1.3563235614531412E-2</v>
+      </c>
+      <c r="K21">
+        <v>2.8203462455645222E-2</v>
+      </c>
+      <c r="L21">
+        <v>895</v>
       </c>
       <c r="M21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>113</v>
       </c>
@@ -6557,16 +6890,16 @@
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-0.018130411072864974</v>
+        <v>120</v>
+      </c>
+      <c r="E22">
+        <v>7.4372556863326628E-3</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="H22" t="s">
         <v>102</v>
@@ -6574,20 +6907,20 @@
       <c r="I22" t="s">
         <v>102</v>
       </c>
-      <c r="J22" t="n">
-        <v>-0.03633078957820548</v>
-      </c>
-      <c r="K22" t="n">
-        <v>6.996743247548315E-5</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1022.0</v>
+      <c r="J22">
+        <v>-8.8915152578771285E-3</v>
+      </c>
+      <c r="K22">
+        <v>2.3766026630542472E-2</v>
+      </c>
+      <c r="L22">
+        <v>761</v>
       </c>
       <c r="M22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>113</v>
       </c>
@@ -6598,37 +6931,37 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>135</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.006302672157741861</v>
+        <v>130</v>
+      </c>
+      <c r="E23">
+        <v>1.1355137728408429E-2</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I23" t="s">
-        <v>102</v>
-      </c>
-      <c r="J23" t="n">
-        <v>-0.014881803637917239</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.027487147953400945</v>
-      </c>
-      <c r="L23" t="n">
-        <v>775.0</v>
+        <v>18</v>
+      </c>
+      <c r="J23">
+        <v>2.8100560066103095E-3</v>
+      </c>
+      <c r="K23">
+        <v>1.9900219450206529E-2</v>
+      </c>
+      <c r="L23">
+        <v>886</v>
       </c>
       <c r="M23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -6639,10 +6972,10 @@
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>136</v>
-      </c>
-      <c r="E24" t="n">
-        <v>-0.009793691974957362</v>
+        <v>144</v>
+      </c>
+      <c r="E24">
+        <v>1.2857759700649037E-2</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
@@ -6656,20 +6989,20 @@
       <c r="I24" t="s">
         <v>102</v>
       </c>
-      <c r="J24" t="n">
-        <v>-0.033403292428114836</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.013815908478200118</v>
-      </c>
-      <c r="L24" t="n">
-        <v>643.0</v>
+      <c r="J24">
+        <v>-1.1428542214751338E-2</v>
+      </c>
+      <c r="K24">
+        <v>3.7144061616049398E-2</v>
+      </c>
+      <c r="L24">
+        <v>294</v>
       </c>
       <c r="M24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>113</v>
       </c>
@@ -6680,10 +7013,10 @@
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.02270088592346873</v>
+        <v>132</v>
+      </c>
+      <c r="E25">
+        <v>1.517450211129885E-2</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
@@ -6692,25 +7025,25 @@
         <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I25" t="s">
         <v>102</v>
       </c>
-      <c r="J25" t="n">
-        <v>-7.744129113602324E-4</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.04617618475829773</v>
-      </c>
-      <c r="L25" t="n">
-        <v>583.0</v>
+      <c r="J25">
+        <v>3.1459805512568939E-3</v>
+      </c>
+      <c r="K25">
+        <v>2.7203023671340847E-2</v>
+      </c>
+      <c r="L25">
+        <v>1286</v>
       </c>
       <c r="M25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>113</v>
       </c>
@@ -6721,10 +7054,10 @@
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
-      </c>
-      <c r="E26" t="n">
-        <v>-0.0325024730932651</v>
+        <v>115</v>
+      </c>
+      <c r="E26">
+        <v>1.5857969837931692E-2</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -6736,22 +7069,22 @@
         <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>102</v>
-      </c>
-      <c r="J26" t="n">
-        <v>-0.057299091121831555</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-0.007705855064698574</v>
-      </c>
-      <c r="L26" t="n">
-        <v>570.0</v>
+        <v>18</v>
+      </c>
+      <c r="J26">
+        <v>9.3726569160656938E-3</v>
+      </c>
+      <c r="K26">
+        <v>2.234328275979771E-2</v>
+      </c>
+      <c r="L26">
+        <v>2482</v>
       </c>
       <c r="M26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -6762,10 +7095,10 @@
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
-      </c>
-      <c r="E27" t="n">
-        <v>-0.021472659511321775</v>
+        <v>128</v>
+      </c>
+      <c r="E27">
+        <v>1.7114583581645665E-2</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
@@ -6777,22 +7110,22 @@
         <v>18</v>
       </c>
       <c r="I27" t="s">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>-0.038724604946357</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-0.0042207140762865365</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1684.0</v>
+        <v>18</v>
+      </c>
+      <c r="J27">
+        <v>1.2752590118562279E-2</v>
+      </c>
+      <c r="K27">
+        <v>2.1476577044729245E-2</v>
+      </c>
+      <c r="L27">
+        <v>6288</v>
       </c>
       <c r="M27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -6803,37 +7136,37 @@
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>140</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.0030080119222476707</v>
+        <v>123</v>
+      </c>
+      <c r="E28">
+        <v>1.7486318183285221E-2</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
       </c>
       <c r="G28" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I28" t="s">
-        <v>102</v>
-      </c>
-      <c r="J28" t="n">
-        <v>-0.017166929718416803</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.023182953562912147</v>
-      </c>
-      <c r="L28" t="n">
-        <v>669.0</v>
+        <v>18</v>
+      </c>
+      <c r="J28">
+        <v>7.6425665183535406E-3</v>
+      </c>
+      <c r="K28">
+        <v>2.7330069848216888E-2</v>
+      </c>
+      <c r="L28">
+        <v>951</v>
       </c>
       <c r="M28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>113</v>
       </c>
@@ -6844,16 +7177,16 @@
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E29" t="n">
-        <v>-0.016841602583662844</v>
+        <v>129</v>
+      </c>
+      <c r="E29">
+        <v>2.0780854311893946E-2</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
       </c>
       <c r="G29" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="H29" t="s">
         <v>102</v>
@@ -6861,20 +7194,20 @@
       <c r="I29" t="s">
         <v>102</v>
       </c>
-      <c r="J29" t="n">
-        <v>-0.05277785391094973</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.019094648743624057</v>
-      </c>
-      <c r="L29" t="n">
-        <v>372.0</v>
+      <c r="J29">
+        <v>-2.1818094694930033E-3</v>
+      </c>
+      <c r="K29">
+        <v>4.374351809328092E-2</v>
+      </c>
+      <c r="L29">
+        <v>373</v>
       </c>
       <c r="M29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -6885,16 +7218,16 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-8.201084131301452E-4</v>
+        <v>137</v>
+      </c>
+      <c r="E30">
+        <v>2.2700885923468729E-2</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
       </c>
       <c r="G30" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="H30" t="s">
         <v>102</v>
@@ -6902,20 +7235,20 @@
       <c r="I30" t="s">
         <v>102</v>
       </c>
-      <c r="J30" t="n">
-        <v>-0.03407808941655242</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.03243787259029213</v>
-      </c>
-      <c r="L30" t="n">
-        <v>499.0</v>
+      <c r="J30">
+        <v>-7.7441291136023244E-4</v>
+      </c>
+      <c r="K30">
+        <v>4.6176184758297732E-2</v>
+      </c>
+      <c r="L30">
+        <v>583</v>
       </c>
       <c r="M30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -6926,16 +7259,16 @@
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-0.0033124303153661723</v>
+        <v>114</v>
+      </c>
+      <c r="E31">
+        <v>2.3395839101670379E-2</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="H31" t="s">
         <v>102</v>
@@ -6943,20 +7276,20 @@
       <c r="I31" t="s">
         <v>102</v>
       </c>
-      <c r="J31" t="n">
-        <v>-0.018202975221212003</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.011578114590479664</v>
-      </c>
-      <c r="L31" t="n">
-        <v>864.0</v>
+      <c r="J31">
+        <v>-2.2002950643589154E-3</v>
+      </c>
+      <c r="K31">
+        <v>4.8991973267699676E-2</v>
+      </c>
+      <c r="L31">
+        <v>663</v>
       </c>
       <c r="M31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>113</v>
       </c>
@@ -6967,37 +7300,37 @@
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.012857759700649037</v>
+        <v>126</v>
+      </c>
+      <c r="E32">
+        <v>2.6239125907688086E-2</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
       </c>
       <c r="G32" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="H32" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I32" t="s">
         <v>102</v>
       </c>
-      <c r="J32" t="n">
-        <v>-0.011428542214751338</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.0371440616160494</v>
-      </c>
-      <c r="L32" t="n">
-        <v>294.0</v>
+      <c r="J32">
+        <v>5.2341609473532287E-3</v>
+      </c>
+      <c r="K32">
+        <v>4.7244090868022962E-2</v>
+      </c>
+      <c r="L32">
+        <v>796</v>
       </c>
       <c r="M32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -7008,10 +7341,10 @@
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
-      </c>
-      <c r="E33" t="n">
-        <v>-0.008627491227211029</v>
+        <v>119</v>
+      </c>
+      <c r="E33">
+        <v>3.5292376243227834E-2</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -7020,38 +7353,43 @@
         <v>18</v>
       </c>
       <c r="H33" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I33" t="s">
         <v>102</v>
       </c>
-      <c r="J33" t="n">
-        <v>-0.017835986185919805</v>
-      </c>
-      <c r="K33" t="n">
-        <v>5.810037314977496E-4</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1006.0</v>
+      <c r="J33">
+        <v>2.500999809815746E-3</v>
+      </c>
+      <c r="K33">
+        <v>6.8083752676639922E-2</v>
+      </c>
+      <c r="L33">
+        <v>312</v>
       </c>
       <c r="M33" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0001-0000-0400-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L33">
+      <sortCondition ref="E1:E33"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7092,7 +7430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -7105,8 +7443,8 @@
       <c r="D2" t="s">
         <v>147</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.009464980804174841</v>
+      <c r="E2">
+        <v>9.4649808041748409E-3</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -7120,20 +7458,20 @@
       <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="n">
-        <v>0.005536443008042202</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.013393518600307533</v>
-      </c>
-      <c r="L2" t="n">
-        <v>6574.0</v>
+      <c r="J2">
+        <v>5.5364430080422017E-3</v>
+      </c>
+      <c r="K2">
+        <v>1.3393518600307533E-2</v>
+      </c>
+      <c r="L2">
+        <v>6574</v>
       </c>
       <c r="M2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -7146,8 +7484,8 @@
       <c r="D3" t="s">
         <v>148</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.010969287329162612</v>
+      <c r="E3">
+        <v>1.0969287329162612E-2</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -7161,21 +7499,21 @@
       <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" t="n">
-        <v>0.009033552950750097</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.012905021707575265</v>
-      </c>
-      <c r="L3" t="n">
-        <v>25486.0</v>
+      <c r="J3">
+        <v>9.033552950750097E-3</v>
+      </c>
+      <c r="K3">
+        <v>1.2905021707575265E-2</v>
+      </c>
+      <c r="L3">
+        <v>25486</v>
       </c>
       <c r="M3" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7432,9 +7770,28 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D98F114B-545E-48F6-AB74-8880811A2818}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D98F114B-545E-48F6-AB74-8880811A2818}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FCAD6B6-A52F-401D-AD26-02CA7EF0442E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FCAD6B6-A52F-401D-AD26-02CA7EF0442E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/National/Hypothesis/Output/Detenciones/Tipo/hyp_detenciones_flagrancia_years.xlsx
+++ b/National/Hypothesis/Output/Detenciones/Tipo/hyp_detenciones_flagrancia_years.xlsx
@@ -1,30 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/mexico/MEX Research Team/FEDERAL AWARDS/ENPOL/Data/National/Hypothesis/Output/Detenciones/Tipo/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_8DE43B9010DA47FF2AEF57A08A6C76A835AF6392" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{075B6B30-B1E8-7D49-A629-D16724AAA1C8}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Resultados Generales" sheetId="1" r:id="rId1"/>
-    <sheet name="Resultados Generales (modelo fu" sheetId="2" r:id="rId2"/>
-    <sheet name="Resultados Generales (efectos m" sheetId="3" r:id="rId3"/>
-    <sheet name="Por Corporacion_grupos" sheetId="4" r:id="rId4"/>
-    <sheet name="Por Estado" sheetId="5" r:id="rId5"/>
-    <sheet name="Por Sexo" sheetId="6" r:id="rId6"/>
+    <sheet name="Resultados Generales" r:id="rId3" sheetId="1"/>
+    <sheet name="Resultados Generales (modelo fu" r:id="rId4" sheetId="2"/>
+    <sheet name="Resultados Generales (efectos m" r:id="rId5" sheetId="3"/>
+    <sheet name="Por Corporacion_grupos" r:id="rId6" sheetId="4"/>
+    <sheet name="Por Estado" r:id="rId7" sheetId="5"/>
+    <sheet name="Por Sexo" r:id="rId8" sheetId="6"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Por Corporacion_grupos'!$A$1:$L$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Por Estado'!$A$1:$L$1</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -481,10 +469,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -496,7 +485,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -514,326 +503,18 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -874,7 +555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -887,8 +568,8 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2">
-        <v>1.0565218622435821E-2</v>
+      <c r="E2" t="n">
+        <v>0.010565218622435821</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -902,35 +583,33 @@
       <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="J2">
-        <v>8.8300286037402524E-3</v>
-      </c>
-      <c r="K2">
-        <v>1.2300408641131185E-2</v>
-      </c>
-      <c r="L2">
-        <v>32060</v>
+      <c r="J2" t="n">
+        <v>0.008830028603740252</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.012300408641131185</v>
+      </c>
+      <c r="L2" t="n">
+        <v>32060.0</v>
       </c>
       <c r="M2" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:E42"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -965,7 +644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -978,7 +657,7 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>-0.7198417285791664</v>
       </c>
       <c r="F2" t="s">
@@ -993,14 +672,14 @@
       <c r="I2" t="s">
         <v>102</v>
       </c>
-      <c r="J2">
-        <v>32015</v>
+      <c r="J2" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1013,7 +692,7 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>0.10685759978768343</v>
       </c>
       <c r="F3" t="s">
@@ -1028,14 +707,14 @@
       <c r="I3" t="s">
         <v>102</v>
       </c>
-      <c r="J3">
-        <v>32015</v>
+      <c r="J3" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1048,7 +727,7 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>0.45286406158949843</v>
       </c>
       <c r="F4" t="s">
@@ -1063,14 +742,14 @@
       <c r="I4" t="s">
         <v>102</v>
       </c>
-      <c r="J4">
-        <v>32015</v>
+      <c r="J4" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1083,8 +762,8 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5">
-        <v>-0.29183469865539602</v>
+      <c r="E5" t="n">
+        <v>-0.291834698655396</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -1098,14 +777,14 @@
       <c r="I5" t="s">
         <v>102</v>
       </c>
-      <c r="J5">
-        <v>32015</v>
+      <c r="J5" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1118,7 +797,7 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>0.18555110816506062</v>
       </c>
       <c r="F6" t="s">
@@ -1133,14 +812,14 @@
       <c r="I6" t="s">
         <v>102</v>
       </c>
-      <c r="J6">
-        <v>32015</v>
+      <c r="J6" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1153,8 +832,8 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7">
-        <v>-8.8379681089813963E-2</v>
+      <c r="E7" t="n">
+        <v>-0.08837968108981396</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -1168,14 +847,14 @@
       <c r="I7" t="s">
         <v>102</v>
       </c>
-      <c r="J7">
-        <v>32015</v>
+      <c r="J7" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1188,8 +867,8 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8">
-        <v>-1.4323434234298951</v>
+      <c r="E8" t="n">
+        <v>-1.432343423429895</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -1203,14 +882,14 @@
       <c r="I8" t="s">
         <v>18</v>
       </c>
-      <c r="J8">
-        <v>32015</v>
+      <c r="J8" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1223,7 +902,7 @@
       <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>-1.456698372110641</v>
       </c>
       <c r="F9" t="s">
@@ -1238,14 +917,14 @@
       <c r="I9" t="s">
         <v>18</v>
       </c>
-      <c r="J9">
-        <v>32015</v>
+      <c r="J9" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1258,7 +937,7 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>0.32289590764764964</v>
       </c>
       <c r="F10" t="s">
@@ -1273,14 +952,14 @@
       <c r="I10" t="s">
         <v>102</v>
       </c>
-      <c r="J10">
-        <v>32015</v>
+      <c r="J10" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1293,7 +972,7 @@
       <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>-0.23365256261158035</v>
       </c>
       <c r="F11" t="s">
@@ -1308,14 +987,14 @@
       <c r="I11" t="s">
         <v>102</v>
       </c>
-      <c r="J11">
-        <v>32015</v>
+      <c r="J11" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1328,8 +1007,8 @@
       <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="E12">
-        <v>0.39059955336745372</v>
+      <c r="E12" t="n">
+        <v>0.3905995533674537</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -1343,14 +1022,14 @@
       <c r="I12" t="s">
         <v>102</v>
       </c>
-      <c r="J12">
-        <v>32015</v>
+      <c r="J12" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1363,8 +1042,8 @@
       <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="E13">
-        <v>-2.9804752596550514E-2</v>
+      <c r="E13" t="n">
+        <v>-0.029804752596550514</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -1378,14 +1057,14 @@
       <c r="I13" t="s">
         <v>102</v>
       </c>
-      <c r="J13">
-        <v>32015</v>
+      <c r="J13" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1398,7 +1077,7 @@
       <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>1.3589121159272646</v>
       </c>
       <c r="F14" t="s">
@@ -1413,14 +1092,14 @@
       <c r="I14" t="s">
         <v>18</v>
       </c>
-      <c r="J14">
-        <v>32015</v>
+      <c r="J14" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1433,7 +1112,7 @@
       <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>0.46288439401332376</v>
       </c>
       <c r="F15" t="s">
@@ -1448,14 +1127,14 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
-      <c r="J15">
-        <v>32015</v>
+      <c r="J15" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1468,8 +1147,8 @@
       <c r="D16" t="s">
         <v>16</v>
       </c>
-      <c r="E16">
-        <v>-0.14101502261628049</v>
+      <c r="E16" t="n">
+        <v>-0.1410150226162805</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -1483,14 +1162,14 @@
       <c r="I16" t="s">
         <v>102</v>
       </c>
-      <c r="J16">
-        <v>32015</v>
+      <c r="J16" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1503,7 +1182,7 @@
       <c r="D17" t="s">
         <v>16</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>-0.22035721237950662</v>
       </c>
       <c r="F17" t="s">
@@ -1518,14 +1197,14 @@
       <c r="I17" t="s">
         <v>102</v>
       </c>
-      <c r="J17">
-        <v>32015</v>
+      <c r="J17" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1538,8 +1217,8 @@
       <c r="D18" t="s">
         <v>16</v>
       </c>
-      <c r="E18">
-        <v>0.58337363486364602</v>
+      <c r="E18" t="n">
+        <v>0.583373634863646</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -1553,14 +1232,14 @@
       <c r="I18" t="s">
         <v>102</v>
       </c>
-      <c r="J18">
-        <v>32015</v>
+      <c r="J18" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1573,8 +1252,8 @@
       <c r="D19" t="s">
         <v>16</v>
       </c>
-      <c r="E19">
-        <v>0.70438037383082419</v>
+      <c r="E19" t="n">
+        <v>0.7043803738308242</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
@@ -1588,14 +1267,14 @@
       <c r="I19" t="s">
         <v>102</v>
       </c>
-      <c r="J19">
-        <v>32015</v>
+      <c r="J19" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1608,7 +1287,7 @@
       <c r="D20" t="s">
         <v>16</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>0.21128298634141504</v>
       </c>
       <c r="F20" t="s">
@@ -1623,14 +1302,14 @@
       <c r="I20" t="s">
         <v>102</v>
       </c>
-      <c r="J20">
-        <v>32015</v>
+      <c r="J20" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1643,7 +1322,7 @@
       <c r="D21" t="s">
         <v>16</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>0.12903610159538972</v>
       </c>
       <c r="F21" t="s">
@@ -1658,14 +1337,14 @@
       <c r="I21" t="s">
         <v>102</v>
       </c>
-      <c r="J21">
-        <v>32015</v>
+      <c r="J21" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1678,8 +1357,8 @@
       <c r="D22" t="s">
         <v>16</v>
       </c>
-      <c r="E22">
-        <v>0.57285817480284362</v>
+      <c r="E22" t="n">
+        <v>0.5728581748028436</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
@@ -1693,14 +1372,14 @@
       <c r="I22" t="s">
         <v>102</v>
       </c>
-      <c r="J22">
-        <v>32015</v>
+      <c r="J22" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1713,8 +1392,8 @@
       <c r="D23" t="s">
         <v>16</v>
       </c>
-      <c r="E23">
-        <v>0.85052808254580003</v>
+      <c r="E23" t="n">
+        <v>0.8505280825458</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
@@ -1728,14 +1407,14 @@
       <c r="I23" t="s">
         <v>18</v>
       </c>
-      <c r="J23">
-        <v>32015</v>
+      <c r="J23" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1748,7 +1427,7 @@
       <c r="D24" t="s">
         <v>16</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>0.547589194024522</v>
       </c>
       <c r="F24" t="s">
@@ -1763,14 +1442,14 @@
       <c r="I24" t="s">
         <v>102</v>
       </c>
-      <c r="J24">
-        <v>32015</v>
+      <c r="J24" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1783,7 +1462,7 @@
       <c r="D25" t="s">
         <v>16</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>0.40215723626857214</v>
       </c>
       <c r="F25" t="s">
@@ -1798,14 +1477,14 @@
       <c r="I25" t="s">
         <v>102</v>
       </c>
-      <c r="J25">
-        <v>32015</v>
+      <c r="J25" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1818,8 +1497,8 @@
       <c r="D26" t="s">
         <v>16</v>
       </c>
-      <c r="E26">
-        <v>-0.53421784805943828</v>
+      <c r="E26" t="n">
+        <v>-0.5342178480594383</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -1833,14 +1512,14 @@
       <c r="I26" t="s">
         <v>102</v>
       </c>
-      <c r="J26">
-        <v>32015</v>
+      <c r="J26" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1853,8 +1532,8 @@
       <c r="D27" t="s">
         <v>16</v>
       </c>
-      <c r="E27">
-        <v>-8.3667221048611767E-2</v>
+      <c r="E27" t="n">
+        <v>-0.08366722104861177</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
@@ -1868,14 +1547,14 @@
       <c r="I27" t="s">
         <v>102</v>
       </c>
-      <c r="J27">
-        <v>32015</v>
+      <c r="J27" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1888,7 +1567,7 @@
       <c r="D28" t="s">
         <v>16</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>0.17021962732619142</v>
       </c>
       <c r="F28" t="s">
@@ -1903,14 +1582,14 @@
       <c r="I28" t="s">
         <v>102</v>
       </c>
-      <c r="J28">
-        <v>32015</v>
+      <c r="J28" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1923,8 +1602,8 @@
       <c r="D29" t="s">
         <v>16</v>
       </c>
-      <c r="E29">
-        <v>0.39847330732525799</v>
+      <c r="E29" t="n">
+        <v>0.398473307325258</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
@@ -1938,14 +1617,14 @@
       <c r="I29" t="s">
         <v>102</v>
       </c>
-      <c r="J29">
-        <v>32015</v>
+      <c r="J29" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1958,7 +1637,7 @@
       <c r="D30" t="s">
         <v>16</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>0.34420669640196944</v>
       </c>
       <c r="F30" t="s">
@@ -1973,14 +1652,14 @@
       <c r="I30" t="s">
         <v>102</v>
       </c>
-      <c r="J30">
-        <v>32015</v>
+      <c r="J30" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -1993,8 +1672,8 @@
       <c r="D31" t="s">
         <v>16</v>
       </c>
-      <c r="E31">
-        <v>0.91213703469466823</v>
+      <c r="E31" t="n">
+        <v>0.9121370346946682</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
@@ -2008,14 +1687,14 @@
       <c r="I31" t="s">
         <v>18</v>
       </c>
-      <c r="J31">
-        <v>32015</v>
+      <c r="J31" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -2028,8 +1707,8 @@
       <c r="D32" t="s">
         <v>16</v>
       </c>
-      <c r="E32">
-        <v>0.52427963849451975</v>
+      <c r="E32" t="n">
+        <v>0.5242796384945198</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
@@ -2043,14 +1722,14 @@
       <c r="I32" t="s">
         <v>102</v>
       </c>
-      <c r="J32">
-        <v>32015</v>
+      <c r="J32" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -2063,8 +1742,8 @@
       <c r="D33" t="s">
         <v>16</v>
       </c>
-      <c r="E33">
-        <v>0.57545748435161592</v>
+      <c r="E33" t="n">
+        <v>0.5754574843516159</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -2078,14 +1757,14 @@
       <c r="I33" t="s">
         <v>102</v>
       </c>
-      <c r="J33">
-        <v>32015</v>
+      <c r="J33" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -2098,8 +1777,8 @@
       <c r="D34" t="s">
         <v>16</v>
       </c>
-      <c r="E34">
-        <v>-1.5723464625001338E-2</v>
+      <c r="E34" t="n">
+        <v>-0.01572346462500134</v>
       </c>
       <c r="F34" t="s">
         <v>17</v>
@@ -2113,14 +1792,14 @@
       <c r="I34" t="s">
         <v>102</v>
       </c>
-      <c r="J34">
-        <v>32015</v>
+      <c r="J34" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -2133,8 +1812,8 @@
       <c r="D35" t="s">
         <v>16</v>
       </c>
-      <c r="E35">
-        <v>0.40864740668508831</v>
+      <c r="E35" t="n">
+        <v>0.4086474066850883</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
@@ -2148,14 +1827,14 @@
       <c r="I35" t="s">
         <v>102</v>
       </c>
-      <c r="J35">
-        <v>32015</v>
+      <c r="J35" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -2168,8 +1847,8 @@
       <c r="D36" t="s">
         <v>16</v>
       </c>
-      <c r="E36">
-        <v>0.71867392110425232</v>
+      <c r="E36" t="n">
+        <v>0.7186739211042523</v>
       </c>
       <c r="F36" t="s">
         <v>17</v>
@@ -2183,14 +1862,14 @@
       <c r="I36" t="s">
         <v>102</v>
       </c>
-      <c r="J36">
-        <v>32015</v>
+      <c r="J36" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K36" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -2203,8 +1882,8 @@
       <c r="D37" t="s">
         <v>16</v>
       </c>
-      <c r="E37">
-        <v>0.88884685917738349</v>
+      <c r="E37" t="n">
+        <v>0.8888468591773835</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
@@ -2218,14 +1897,14 @@
       <c r="I37" t="s">
         <v>18</v>
       </c>
-      <c r="J37">
-        <v>32015</v>
+      <c r="J37" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K37" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -2238,8 +1917,8 @@
       <c r="D38" t="s">
         <v>16</v>
       </c>
-      <c r="E38">
-        <v>0.77387437841075202</v>
+      <c r="E38" t="n">
+        <v>0.773874378410752</v>
       </c>
       <c r="F38" t="s">
         <v>17</v>
@@ -2253,14 +1932,14 @@
       <c r="I38" t="s">
         <v>102</v>
       </c>
-      <c r="J38">
-        <v>32015</v>
+      <c r="J38" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K38" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -2273,7 +1952,7 @@
       <c r="D39" t="s">
         <v>16</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>1.0693885863505581</v>
       </c>
       <c r="F39" t="s">
@@ -2288,14 +1967,14 @@
       <c r="I39" t="s">
         <v>18</v>
       </c>
-      <c r="J39">
-        <v>32015</v>
+      <c r="J39" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -2308,7 +1987,7 @@
       <c r="D40" t="s">
         <v>16</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>0.20177095175570445</v>
       </c>
       <c r="F40" t="s">
@@ -2323,14 +2002,14 @@
       <c r="I40" t="s">
         <v>102</v>
       </c>
-      <c r="J40">
-        <v>32015</v>
+      <c r="J40" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K40" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -2343,8 +2022,8 @@
       <c r="D41" t="s">
         <v>16</v>
       </c>
-      <c r="E41">
-        <v>0.58818819379654219</v>
+      <c r="E41" t="n">
+        <v>0.5881881937965422</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
@@ -2358,14 +2037,14 @@
       <c r="I41" t="s">
         <v>102</v>
       </c>
-      <c r="J41">
-        <v>32015</v>
+      <c r="J41" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -2378,7 +2057,7 @@
       <c r="D42" t="s">
         <v>16</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>0.43218816337563926</v>
       </c>
       <c r="F42" t="s">
@@ -2393,14 +2072,14 @@
       <c r="I42" t="s">
         <v>102</v>
       </c>
-      <c r="J42">
-        <v>32015</v>
+      <c r="J42" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K42" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -2413,8 +2092,8 @@
       <c r="D43" t="s">
         <v>16</v>
       </c>
-      <c r="E43">
-        <v>1.3042414275104056E-2</v>
+      <c r="E43" t="n">
+        <v>0.013042414275104056</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
@@ -2428,14 +2107,14 @@
       <c r="I43" t="s">
         <v>102</v>
       </c>
-      <c r="J43">
-        <v>32015</v>
+      <c r="J43" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -2448,7 +2127,7 @@
       <c r="D44" t="s">
         <v>16</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>-0.10379291978844471</v>
       </c>
       <c r="F44" t="s">
@@ -2463,14 +2142,14 @@
       <c r="I44" t="s">
         <v>102</v>
       </c>
-      <c r="J44">
-        <v>32015</v>
+      <c r="J44" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K44" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -2483,8 +2162,8 @@
       <c r="D45" t="s">
         <v>16</v>
       </c>
-      <c r="E45">
-        <v>-5.0598107405029388E-2</v>
+      <c r="E45" t="n">
+        <v>-0.05059810740502939</v>
       </c>
       <c r="F45" t="s">
         <v>17</v>
@@ -2498,14 +2177,14 @@
       <c r="I45" t="s">
         <v>102</v>
       </c>
-      <c r="J45">
-        <v>32015</v>
+      <c r="J45" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K45" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -2518,8 +2197,8 @@
       <c r="D46" t="s">
         <v>16</v>
       </c>
-      <c r="E46">
-        <v>-4.0596926130155558E-2</v>
+      <c r="E46" t="n">
+        <v>-0.04059692613015556</v>
       </c>
       <c r="F46" t="s">
         <v>17</v>
@@ -2533,14 +2212,14 @@
       <c r="I46" t="s">
         <v>102</v>
       </c>
-      <c r="J46">
-        <v>32015</v>
+      <c r="J46" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K46" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -2553,8 +2232,8 @@
       <c r="D47" t="s">
         <v>16</v>
       </c>
-      <c r="E47">
-        <v>-1.8921209204884132E-2</v>
+      <c r="E47" t="n">
+        <v>-0.018921209204884132</v>
       </c>
       <c r="F47" t="s">
         <v>17</v>
@@ -2568,14 +2247,14 @@
       <c r="I47" t="s">
         <v>102</v>
       </c>
-      <c r="J47">
-        <v>32015</v>
+      <c r="J47" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K47" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -2588,8 +2267,8 @@
       <c r="D48" t="s">
         <v>16</v>
       </c>
-      <c r="E48">
-        <v>-6.5620530068358426E-2</v>
+      <c r="E48" t="n">
+        <v>-0.06562053006835843</v>
       </c>
       <c r="F48" t="s">
         <v>17</v>
@@ -2603,14 +2282,14 @@
       <c r="I48" t="s">
         <v>102</v>
       </c>
-      <c r="J48">
-        <v>32015</v>
+      <c r="J48" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K48" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2623,8 +2302,8 @@
       <c r="D49" t="s">
         <v>16</v>
       </c>
-      <c r="E49">
-        <v>-2.942420563045383E-2</v>
+      <c r="E49" t="n">
+        <v>-0.02942420563045383</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
@@ -2638,14 +2317,14 @@
       <c r="I49" t="s">
         <v>102</v>
       </c>
-      <c r="J49">
-        <v>32015</v>
+      <c r="J49" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K49" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -2658,8 +2337,8 @@
       <c r="D50" t="s">
         <v>16</v>
       </c>
-      <c r="E50">
-        <v>-2.4027563417970729E-2</v>
+      <c r="E50" t="n">
+        <v>-0.02402756341797073</v>
       </c>
       <c r="F50" t="s">
         <v>17</v>
@@ -2673,14 +2352,14 @@
       <c r="I50" t="s">
         <v>102</v>
       </c>
-      <c r="J50">
-        <v>32015</v>
+      <c r="J50" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K50" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -2693,8 +2372,8 @@
       <c r="D51" t="s">
         <v>16</v>
       </c>
-      <c r="E51">
-        <v>-3.172704021759478E-2</v>
+      <c r="E51" t="n">
+        <v>-0.03172704021759478</v>
       </c>
       <c r="F51" t="s">
         <v>17</v>
@@ -2708,14 +2387,14 @@
       <c r="I51" t="s">
         <v>102</v>
       </c>
-      <c r="J51">
-        <v>32015</v>
+      <c r="J51" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K51" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -2728,8 +2407,8 @@
       <c r="D52" t="s">
         <v>16</v>
       </c>
-      <c r="E52">
-        <v>-1.861643398426471E-2</v>
+      <c r="E52" t="n">
+        <v>-0.01861643398426471</v>
       </c>
       <c r="F52" t="s">
         <v>17</v>
@@ -2743,14 +2422,14 @@
       <c r="I52" t="s">
         <v>102</v>
       </c>
-      <c r="J52">
-        <v>32015</v>
+      <c r="J52" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K52" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -2763,8 +2442,8 @@
       <c r="D53" t="s">
         <v>16</v>
       </c>
-      <c r="E53">
-        <v>-6.3374923542662345E-2</v>
+      <c r="E53" t="n">
+        <v>-0.06337492354266235</v>
       </c>
       <c r="F53" t="s">
         <v>17</v>
@@ -2778,14 +2457,14 @@
       <c r="I53" t="s">
         <v>102</v>
       </c>
-      <c r="J53">
-        <v>32015</v>
+      <c r="J53" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K53" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -2798,8 +2477,8 @@
       <c r="D54" t="s">
         <v>16</v>
       </c>
-      <c r="E54">
-        <v>-0.20705132112885211</v>
+      <c r="E54" t="n">
+        <v>-0.2070513211288521</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
@@ -2813,14 +2492,14 @@
       <c r="I54" t="s">
         <v>102</v>
       </c>
-      <c r="J54">
-        <v>32015</v>
+      <c r="J54" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K54" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -2833,8 +2512,8 @@
       <c r="D55" t="s">
         <v>16</v>
       </c>
-      <c r="E55">
-        <v>-0.13967781571592419</v>
+      <c r="E55" t="n">
+        <v>-0.1396778157159242</v>
       </c>
       <c r="F55" t="s">
         <v>17</v>
@@ -2848,14 +2527,14 @@
       <c r="I55" t="s">
         <v>102</v>
       </c>
-      <c r="J55">
-        <v>32015</v>
+      <c r="J55" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K55" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -2868,8 +2547,8 @@
       <c r="D56" t="s">
         <v>16</v>
       </c>
-      <c r="E56">
-        <v>8.0349040488392517E-2</v>
+      <c r="E56" t="n">
+        <v>0.08034904048839252</v>
       </c>
       <c r="F56" t="s">
         <v>17</v>
@@ -2883,14 +2562,14 @@
       <c r="I56" t="s">
         <v>102</v>
       </c>
-      <c r="J56">
-        <v>32015</v>
+      <c r="J56" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K56" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -2903,8 +2582,8 @@
       <c r="D57" t="s">
         <v>16</v>
       </c>
-      <c r="E57">
-        <v>-5.3500137479166598E-2</v>
+      <c r="E57" t="n">
+        <v>-0.0535001374791666</v>
       </c>
       <c r="F57" t="s">
         <v>17</v>
@@ -2918,14 +2597,14 @@
       <c r="I57" t="s">
         <v>102</v>
       </c>
-      <c r="J57">
-        <v>32015</v>
+      <c r="J57" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K57" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -2938,8 +2617,8 @@
       <c r="D58" t="s">
         <v>16</v>
       </c>
-      <c r="E58">
-        <v>-6.949785731322275E-2</v>
+      <c r="E58" t="n">
+        <v>-0.06949785731322275</v>
       </c>
       <c r="F58" t="s">
         <v>17</v>
@@ -2953,14 +2632,14 @@
       <c r="I58" t="s">
         <v>102</v>
       </c>
-      <c r="J58">
-        <v>32015</v>
+      <c r="J58" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K58" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -2973,8 +2652,8 @@
       <c r="D59" t="s">
         <v>16</v>
       </c>
-      <c r="E59">
-        <v>-7.9919914777172141E-2</v>
+      <c r="E59" t="n">
+        <v>-0.07991991477717214</v>
       </c>
       <c r="F59" t="s">
         <v>17</v>
@@ -2988,14 +2667,14 @@
       <c r="I59" t="s">
         <v>102</v>
       </c>
-      <c r="J59">
-        <v>32015</v>
+      <c r="J59" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K59" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -3008,8 +2687,8 @@
       <c r="D60" t="s">
         <v>16</v>
       </c>
-      <c r="E60">
-        <v>3.0386854797728843E-2</v>
+      <c r="E60" t="n">
+        <v>0.030386854797728843</v>
       </c>
       <c r="F60" t="s">
         <v>17</v>
@@ -3023,14 +2702,14 @@
       <c r="I60" t="s">
         <v>102</v>
       </c>
-      <c r="J60">
-        <v>32015</v>
+      <c r="J60" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K60" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -3043,8 +2722,8 @@
       <c r="D61" t="s">
         <v>16</v>
       </c>
-      <c r="E61">
-        <v>-9.2931887278390468E-2</v>
+      <c r="E61" t="n">
+        <v>-0.09293188727839047</v>
       </c>
       <c r="F61" t="s">
         <v>17</v>
@@ -3058,14 +2737,14 @@
       <c r="I61" t="s">
         <v>102</v>
       </c>
-      <c r="J61">
-        <v>32015</v>
+      <c r="J61" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K61" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -3078,8 +2757,8 @@
       <c r="D62" t="s">
         <v>16</v>
       </c>
-      <c r="E62">
-        <v>-7.8090056555169637E-2</v>
+      <c r="E62" t="n">
+        <v>-0.07809005655516964</v>
       </c>
       <c r="F62" t="s">
         <v>17</v>
@@ -3093,14 +2772,14 @@
       <c r="I62" t="s">
         <v>102</v>
       </c>
-      <c r="J62">
-        <v>32015</v>
+      <c r="J62" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K62" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -3113,8 +2792,8 @@
       <c r="D63" t="s">
         <v>16</v>
       </c>
-      <c r="E63">
-        <v>8.1371419521016324E-3</v>
+      <c r="E63" t="n">
+        <v>0.008137141952101632</v>
       </c>
       <c r="F63" t="s">
         <v>17</v>
@@ -3128,14 +2807,14 @@
       <c r="I63" t="s">
         <v>102</v>
       </c>
-      <c r="J63">
-        <v>32015</v>
+      <c r="J63" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K63" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -3148,7 +2827,7 @@
       <c r="D64" t="s">
         <v>16</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="n">
         <v>-0.10062138673846414</v>
       </c>
       <c r="F64" t="s">
@@ -3163,14 +2842,14 @@
       <c r="I64" t="s">
         <v>102</v>
       </c>
-      <c r="J64">
-        <v>32015</v>
+      <c r="J64" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K64" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -3183,8 +2862,8 @@
       <c r="D65" t="s">
         <v>16</v>
       </c>
-      <c r="E65">
-        <v>-1.7260326147771291E-2</v>
+      <c r="E65" t="n">
+        <v>-0.01726032614777129</v>
       </c>
       <c r="F65" t="s">
         <v>17</v>
@@ -3198,14 +2877,14 @@
       <c r="I65" t="s">
         <v>102</v>
       </c>
-      <c r="J65">
-        <v>32015</v>
+      <c r="J65" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K65" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -3218,8 +2897,8 @@
       <c r="D66" t="s">
         <v>16</v>
       </c>
-      <c r="E66">
-        <v>2.6645609534823669E-2</v>
+      <c r="E66" t="n">
+        <v>0.02664560953482367</v>
       </c>
       <c r="F66" t="s">
         <v>17</v>
@@ -3233,14 +2912,14 @@
       <c r="I66" t="s">
         <v>102</v>
       </c>
-      <c r="J66">
-        <v>32015</v>
+      <c r="J66" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K66" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -3253,8 +2932,8 @@
       <c r="D67" t="s">
         <v>16</v>
       </c>
-      <c r="E67">
-        <v>-7.1180882851042257E-3</v>
+      <c r="E67" t="n">
+        <v>-0.007118088285104226</v>
       </c>
       <c r="F67" t="s">
         <v>17</v>
@@ -3268,14 +2947,14 @@
       <c r="I67" t="s">
         <v>102</v>
       </c>
-      <c r="J67">
-        <v>32015</v>
+      <c r="J67" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K67" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -3288,7 +2967,7 @@
       <c r="D68" t="s">
         <v>16</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="n">
         <v>-0.1153853815534626</v>
       </c>
       <c r="F68" t="s">
@@ -3303,14 +2982,14 @@
       <c r="I68" t="s">
         <v>102</v>
       </c>
-      <c r="J68">
-        <v>32015</v>
+      <c r="J68" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K68" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -3323,8 +3002,8 @@
       <c r="D69" t="s">
         <v>16</v>
       </c>
-      <c r="E69">
-        <v>-5.8268198108679253E-2</v>
+      <c r="E69" t="n">
+        <v>-0.05826819810867925</v>
       </c>
       <c r="F69" t="s">
         <v>17</v>
@@ -3338,14 +3017,14 @@
       <c r="I69" t="s">
         <v>102</v>
       </c>
-      <c r="J69">
-        <v>32015</v>
+      <c r="J69" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K69" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -3358,8 +3037,8 @@
       <c r="D70" t="s">
         <v>16</v>
       </c>
-      <c r="E70">
-        <v>-8.5742383090603405E-2</v>
+      <c r="E70" t="n">
+        <v>-0.0857423830906034</v>
       </c>
       <c r="F70" t="s">
         <v>17</v>
@@ -3373,14 +3052,14 @@
       <c r="I70" t="s">
         <v>102</v>
       </c>
-      <c r="J70">
-        <v>32015</v>
+      <c r="J70" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K70" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -3393,7 +3072,7 @@
       <c r="D71" t="s">
         <v>16</v>
       </c>
-      <c r="E71">
+      <c r="E71" t="n">
         <v>-0.19328850405461298</v>
       </c>
       <c r="F71" t="s">
@@ -3408,14 +3087,14 @@
       <c r="I71" t="s">
         <v>102</v>
       </c>
-      <c r="J71">
-        <v>32015</v>
+      <c r="J71" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K71" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -3428,7 +3107,7 @@
       <c r="D72" t="s">
         <v>16</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="n">
         <v>-0.10414717367979588</v>
       </c>
       <c r="F72" t="s">
@@ -3443,14 +3122,14 @@
       <c r="I72" t="s">
         <v>102</v>
       </c>
-      <c r="J72">
-        <v>32015</v>
+      <c r="J72" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K72" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -3463,7 +3142,7 @@
       <c r="D73" t="s">
         <v>16</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="n">
         <v>-0.15109786328394315</v>
       </c>
       <c r="F73" t="s">
@@ -3478,14 +3157,14 @@
       <c r="I73" t="s">
         <v>102</v>
       </c>
-      <c r="J73">
-        <v>32015</v>
+      <c r="J73" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K73" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -3498,8 +3177,8 @@
       <c r="D74" t="s">
         <v>16</v>
       </c>
-      <c r="E74">
-        <v>2.4461520552100501E-3</v>
+      <c r="E74" t="n">
+        <v>0.00244615205521005</v>
       </c>
       <c r="F74" t="s">
         <v>17</v>
@@ -3513,14 +3192,14 @@
       <c r="I74" t="s">
         <v>102</v>
       </c>
-      <c r="J74">
-        <v>32015</v>
+      <c r="J74" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K74" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -3533,7 +3212,7 @@
       <c r="D75" t="s">
         <v>16</v>
       </c>
-      <c r="E75">
+      <c r="E75" t="n">
         <v>-0.14189072675289824</v>
       </c>
       <c r="F75" t="s">
@@ -3548,14 +3227,14 @@
       <c r="I75" t="s">
         <v>102</v>
       </c>
-      <c r="J75">
-        <v>32015</v>
+      <c r="J75" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K75" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -3568,7 +3247,7 @@
       <c r="D76" t="s">
         <v>16</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="n">
         <v>-0.16164469731039524</v>
       </c>
       <c r="F76" t="s">
@@ -3583,14 +3262,14 @@
       <c r="I76" t="s">
         <v>102</v>
       </c>
-      <c r="J76">
-        <v>32015</v>
+      <c r="J76" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K76" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -3603,7 +3282,7 @@
       <c r="D77" t="s">
         <v>16</v>
       </c>
-      <c r="E77">
+      <c r="E77" t="n">
         <v>-0.15343712216424338</v>
       </c>
       <c r="F77" t="s">
@@ -3618,14 +3297,14 @@
       <c r="I77" t="s">
         <v>102</v>
       </c>
-      <c r="J77">
-        <v>32015</v>
+      <c r="J77" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K77" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -3638,7 +3317,7 @@
       <c r="D78" t="s">
         <v>16</v>
       </c>
-      <c r="E78">
+      <c r="E78" t="n">
         <v>-0.16480055239638047</v>
       </c>
       <c r="F78" t="s">
@@ -3653,14 +3332,14 @@
       <c r="I78" t="s">
         <v>102</v>
       </c>
-      <c r="J78">
-        <v>32015</v>
+      <c r="J78" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K78" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -3673,7 +3352,7 @@
       <c r="D79" t="s">
         <v>16</v>
       </c>
-      <c r="E79">
+      <c r="E79" t="n">
         <v>-0.18127295473629326</v>
       </c>
       <c r="F79" t="s">
@@ -3688,14 +3367,14 @@
       <c r="I79" t="s">
         <v>102</v>
       </c>
-      <c r="J79">
-        <v>32015</v>
+      <c r="J79" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K79" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -3708,8 +3387,8 @@
       <c r="D80" t="s">
         <v>16</v>
       </c>
-      <c r="E80">
-        <v>-7.9107799852661628E-2</v>
+      <c r="E80" t="n">
+        <v>-0.07910779985266163</v>
       </c>
       <c r="F80" t="s">
         <v>17</v>
@@ -3723,14 +3402,14 @@
       <c r="I80" t="s">
         <v>102</v>
       </c>
-      <c r="J80">
-        <v>32015</v>
+      <c r="J80" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K80" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -3743,8 +3422,8 @@
       <c r="D81" t="s">
         <v>16</v>
       </c>
-      <c r="E81">
-        <v>-5.9686807169796741E-2</v>
+      <c r="E81" t="n">
+        <v>-0.05968680716979674</v>
       </c>
       <c r="F81" t="s">
         <v>17</v>
@@ -3758,14 +3437,14 @@
       <c r="I81" t="s">
         <v>102</v>
       </c>
-      <c r="J81">
-        <v>32015</v>
+      <c r="J81" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K81" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -3778,8 +3457,8 @@
       <c r="D82" t="s">
         <v>16</v>
       </c>
-      <c r="E82">
-        <v>-7.3826841258643403E-2</v>
+      <c r="E82" t="n">
+        <v>-0.0738268412586434</v>
       </c>
       <c r="F82" t="s">
         <v>17</v>
@@ -3793,14 +3472,14 @@
       <c r="I82" t="s">
         <v>102</v>
       </c>
-      <c r="J82">
-        <v>32015</v>
+      <c r="J82" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K82" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -3813,8 +3492,8 @@
       <c r="D83" t="s">
         <v>16</v>
       </c>
-      <c r="E83">
-        <v>-2.1977931740856339E-3</v>
+      <c r="E83" t="n">
+        <v>-0.002197793174085634</v>
       </c>
       <c r="F83" t="s">
         <v>17</v>
@@ -3828,27 +3507,27 @@
       <c r="I83" t="s">
         <v>102</v>
       </c>
-      <c r="J83">
-        <v>32015</v>
+      <c r="J83" t="n">
+        <v>32015.0</v>
       </c>
       <c r="K83" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3889,7 +3568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3902,8 +3581,8 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2">
-        <v>-1.4015695271267954E-2</v>
+      <c r="E2" t="n">
+        <v>-0.014015695271267954</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -3917,20 +3596,20 @@
       <c r="I2" t="s">
         <v>102</v>
       </c>
-      <c r="J2">
-        <v>-7.5955903840859415E-2</v>
-      </c>
-      <c r="K2">
-        <v>4.7924513298323819E-2</v>
-      </c>
-      <c r="L2">
-        <v>32015</v>
+      <c r="J2" t="n">
+        <v>-0.07595590384085942</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.04792451329832382</v>
+      </c>
+      <c r="L2" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3943,7 +3622,7 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>-0.12854679238575614</v>
       </c>
       <c r="F3" t="s">
@@ -3958,20 +3637,20 @@
       <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>-0.18160794548493225</v>
       </c>
-      <c r="K3">
-        <v>-7.5485639286574979E-2</v>
-      </c>
-      <c r="L3">
-        <v>32015</v>
+      <c r="K3" t="n">
+        <v>-0.07548563928657498</v>
+      </c>
+      <c r="L3" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3984,8 +3663,8 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4">
-        <v>-3.3842399871374541E-3</v>
+      <c r="E4" t="n">
+        <v>-0.003384239987137454</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -3999,20 +3678,20 @@
       <c r="I4" t="s">
         <v>102</v>
       </c>
-      <c r="J4">
-        <v>-9.2187937700929035E-2</v>
-      </c>
-      <c r="K4">
-        <v>8.5419457726654213E-2</v>
-      </c>
-      <c r="L4">
-        <v>32015</v>
+      <c r="J4" t="n">
+        <v>-0.09218793770092903</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.08541945772665421</v>
+      </c>
+      <c r="L4" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -4025,8 +3704,8 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5">
-        <v>-4.3923055020379818E-2</v>
+      <c r="E5" t="n">
+        <v>-0.04392305502037982</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -4040,20 +3719,20 @@
       <c r="I5" t="s">
         <v>102</v>
       </c>
-      <c r="J5">
-        <v>-9.3264210817217863E-2</v>
-      </c>
-      <c r="K5">
-        <v>5.4181007764577752E-3</v>
-      </c>
-      <c r="L5">
-        <v>32015</v>
+      <c r="J5" t="n">
+        <v>-0.09326421081721786</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.005418100776457775</v>
+      </c>
+      <c r="L5" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -4066,7 +3745,7 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>-0.34348455952888474</v>
       </c>
       <c r="F6" t="s">
@@ -4081,20 +3760,20 @@
       <c r="I6" t="s">
         <v>18</v>
       </c>
-      <c r="J6">
-        <v>-0.39138358351128127</v>
-      </c>
-      <c r="K6">
-        <v>-0.29558553554648997</v>
-      </c>
-      <c r="L6">
-        <v>32015</v>
+      <c r="J6" t="n">
+        <v>-0.3913835835112813</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.29558553554649</v>
+      </c>
+      <c r="L6" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -4107,7 +3786,7 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>-0.32282700207911724</v>
       </c>
       <c r="F7" t="s">
@@ -4122,20 +3801,20 @@
       <c r="I7" t="s">
         <v>18</v>
       </c>
-      <c r="J7">
-        <v>-0.37304434032820671</v>
-      </c>
-      <c r="K7">
+      <c r="J7" t="n">
+        <v>-0.3730443403282067</v>
+      </c>
+      <c r="K7" t="n">
         <v>-0.27260966383002244</v>
       </c>
-      <c r="L7">
-        <v>32015</v>
+      <c r="L7" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -4148,8 +3827,8 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8">
-        <v>4.9886443916233605E-2</v>
+      <c r="E8" t="n">
+        <v>0.049886443916233605</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -4163,20 +3842,20 @@
       <c r="I8" t="s">
         <v>102</v>
       </c>
-      <c r="J8">
-        <v>1.1668602344395151E-3</v>
-      </c>
-      <c r="K8">
-        <v>9.8606027598026183E-2</v>
-      </c>
-      <c r="L8">
-        <v>32015</v>
+      <c r="J8" t="n">
+        <v>0.0011668602344395151</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.09860602759802618</v>
+      </c>
+      <c r="L8" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -4189,8 +3868,8 @@
       <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E9">
-        <v>-9.3549765967324686E-2</v>
+      <c r="E9" t="n">
+        <v>-0.09354976596732469</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -4204,20 +3883,20 @@
       <c r="I9" t="s">
         <v>18</v>
       </c>
-      <c r="J9">
-        <v>-0.14969388299667799</v>
-      </c>
-      <c r="K9">
-        <v>-3.740564893797204E-2</v>
-      </c>
-      <c r="L9">
-        <v>32015</v>
+      <c r="J9" t="n">
+        <v>-0.149693882996678</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.03740564893797204</v>
+      </c>
+      <c r="L9" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -4230,8 +3909,8 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10">
-        <v>5.7462928888095365E-2</v>
+      <c r="E10" t="n">
+        <v>0.057462928888095365</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
@@ -4245,20 +3924,20 @@
       <c r="I10" t="s">
         <v>102</v>
       </c>
-      <c r="J10">
-        <v>4.9366378405596156E-3</v>
-      </c>
-      <c r="K10">
+      <c r="J10" t="n">
+        <v>0.004936637840559616</v>
+      </c>
+      <c r="K10" t="n">
         <v>0.10998921993563199</v>
       </c>
-      <c r="L10">
-        <v>32015</v>
+      <c r="L10" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4271,8 +3950,8 @@
       <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="E11">
-        <v>-6.2185336526757957E-2</v>
+      <c r="E11" t="n">
+        <v>-0.06218533652675796</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -4286,20 +3965,20 @@
       <c r="I11" t="s">
         <v>102</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>-0.14934801282522667</v>
       </c>
-      <c r="K11">
-        <v>2.4977339771710516E-2</v>
-      </c>
-      <c r="L11">
-        <v>32015</v>
+      <c r="K11" t="n">
+        <v>0.024977339771710516</v>
+      </c>
+      <c r="L11" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4312,8 +3991,8 @@
       <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="E12">
-        <v>6.9398932110292286E-2</v>
+      <c r="E12" t="n">
+        <v>0.06939893211029229</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -4327,20 +4006,20 @@
       <c r="I12" t="s">
         <v>102</v>
       </c>
-      <c r="J12">
-        <v>-2.5280557471658582E-3</v>
-      </c>
-      <c r="K12">
+      <c r="J12" t="n">
+        <v>-0.0025280557471658582</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.14132591996775035</v>
       </c>
-      <c r="L12">
-        <v>32015</v>
+      <c r="L12" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4353,8 +4032,8 @@
       <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="E13">
-        <v>-4.0955348915254486E-2</v>
+      <c r="E13" t="n">
+        <v>-0.040955348915254486</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -4368,20 +4047,20 @@
       <c r="I13" t="s">
         <v>102</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>-0.10351264349719205</v>
       </c>
-      <c r="K13">
-        <v>2.1601945666683463E-2</v>
-      </c>
-      <c r="L13">
-        <v>32015</v>
+      <c r="K13" t="n">
+        <v>0.021601945666683463</v>
+      </c>
+      <c r="L13" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4394,8 +4073,8 @@
       <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="E14">
-        <v>5.0482369439349827E-2</v>
+      <c r="E14" t="n">
+        <v>0.050482369439349827</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -4409,20 +4088,20 @@
       <c r="I14" t="s">
         <v>102</v>
       </c>
-      <c r="J14">
-        <v>-4.4566250432765943E-2</v>
-      </c>
-      <c r="K14">
+      <c r="J14" t="n">
+        <v>-0.04456625043276594</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.14553098931146574</v>
       </c>
-      <c r="L14">
-        <v>32015</v>
+      <c r="L14" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -4435,8 +4114,8 @@
       <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="E15">
-        <v>-8.5457365022965609E-2</v>
+      <c r="E15" t="n">
+        <v>-0.08545736502296561</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
@@ -4450,20 +4129,20 @@
       <c r="I15" t="s">
         <v>18</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>-0.14707689066436896</v>
       </c>
-      <c r="K15">
-        <v>-2.3837839381562295E-2</v>
-      </c>
-      <c r="L15">
-        <v>32015</v>
+      <c r="K15" t="n">
+        <v>-0.023837839381562295</v>
+      </c>
+      <c r="L15" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -4476,8 +4155,8 @@
       <c r="D16" t="s">
         <v>16</v>
       </c>
-      <c r="E16">
-        <v>4.5979467618360782E-2</v>
+      <c r="E16" t="n">
+        <v>0.04597946761836078</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -4491,20 +4170,20 @@
       <c r="I16" t="s">
         <v>102</v>
       </c>
-      <c r="J16">
-        <v>-8.106866673556104E-3</v>
-      </c>
-      <c r="K16">
+      <c r="J16" t="n">
+        <v>-0.008106866673556104</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.10006580191027835</v>
       </c>
-      <c r="L16">
-        <v>32015</v>
+      <c r="L16" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -4517,8 +4196,8 @@
       <c r="D17" t="s">
         <v>16</v>
       </c>
-      <c r="E17">
-        <v>6.0017375428702793E-2</v>
+      <c r="E17" t="n">
+        <v>0.06001737542870279</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -4532,20 +4211,20 @@
       <c r="I17" t="s">
         <v>102</v>
       </c>
-      <c r="J17">
-        <v>-4.5802648763102471E-3</v>
-      </c>
-      <c r="K17">
-        <v>0.12461501573371581</v>
-      </c>
-      <c r="L17">
-        <v>32015</v>
+      <c r="J17" t="n">
+        <v>-0.004580264876310247</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.1246150157337158</v>
+      </c>
+      <c r="L17" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -4558,8 +4237,8 @@
       <c r="D18" t="s">
         <v>16</v>
       </c>
-      <c r="E18">
-        <v>7.0215018091742673E-2</v>
+      <c r="E18" t="n">
+        <v>0.07021501809174267</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -4573,20 +4252,20 @@
       <c r="I18" t="s">
         <v>102</v>
       </c>
-      <c r="J18">
-        <v>9.4187889696706537E-3</v>
-      </c>
-      <c r="K18">
-        <v>0.13101124721381449</v>
-      </c>
-      <c r="L18">
-        <v>32015</v>
+      <c r="J18" t="n">
+        <v>0.009418788969670654</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1310112472138145</v>
+      </c>
+      <c r="L18" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -4599,8 +4278,8 @@
       <c r="D19" t="s">
         <v>16</v>
       </c>
-      <c r="E19">
-        <v>-5.9937597588797728E-2</v>
+      <c r="E19" t="n">
+        <v>-0.05993759758879773</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
@@ -4614,20 +4293,20 @@
       <c r="I19" t="s">
         <v>102</v>
       </c>
-      <c r="J19">
-        <v>-0.11490343921796529</v>
-      </c>
-      <c r="K19">
-        <v>-4.9717559596305222E-3</v>
-      </c>
-      <c r="L19">
-        <v>32015</v>
+      <c r="J19" t="n">
+        <v>-0.1149034392179653</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.004971755959630522</v>
+      </c>
+      <c r="L19" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -4640,8 +4319,8 @@
       <c r="D20" t="s">
         <v>16</v>
       </c>
-      <c r="E20">
-        <v>3.5582144661962849E-2</v>
+      <c r="E20" t="n">
+        <v>0.03558214466196285</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
@@ -4655,20 +4334,20 @@
       <c r="I20" t="s">
         <v>102</v>
       </c>
-      <c r="J20">
-        <v>-4.1050973947251788E-2</v>
-      </c>
-      <c r="K20">
+      <c r="J20" t="n">
+        <v>-0.04105097394725179</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.11221526327117767</v>
       </c>
-      <c r="L20">
-        <v>32015</v>
+      <c r="L20" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -4681,7 +4360,7 @@
       <c r="D21" t="s">
         <v>16</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>0.17841389120256218</v>
       </c>
       <c r="F21" t="s">
@@ -4696,20 +4375,20 @@
       <c r="I21" t="s">
         <v>18</v>
       </c>
-      <c r="J21">
-        <v>0.11441993414238499</v>
-      </c>
-      <c r="K21">
+      <c r="J21" t="n">
+        <v>0.114419934142385</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.24240784826273848</v>
       </c>
-      <c r="L21">
-        <v>32015</v>
+      <c r="L21" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -4722,8 +4401,8 @@
       <c r="D22" t="s">
         <v>16</v>
       </c>
-      <c r="E22">
-        <v>9.3371701229112702E-3</v>
+      <c r="E22" t="n">
+        <v>0.00933717012291127</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
@@ -4737,20 +4416,20 @@
       <c r="I22" t="s">
         <v>102</v>
       </c>
-      <c r="J22">
-        <v>-5.4482756936894743E-2</v>
-      </c>
-      <c r="K22">
-        <v>7.3157097182717165E-2</v>
-      </c>
-      <c r="L22">
-        <v>32015</v>
+      <c r="J22" t="n">
+        <v>-0.05448275693689474</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.07315709718271717</v>
+      </c>
+      <c r="L22" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -4763,8 +4442,8 @@
       <c r="D23" t="s">
         <v>16</v>
       </c>
-      <c r="E23">
-        <v>6.1105164929311472E-2</v>
+      <c r="E23" t="n">
+        <v>0.06110516492931147</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
@@ -4778,20 +4457,20 @@
       <c r="I23" t="s">
         <v>102</v>
       </c>
-      <c r="J23">
-        <v>1.0052636006315861E-2</v>
-      </c>
-      <c r="K23">
+      <c r="J23" t="n">
+        <v>0.010052636006315861</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.11215769385230662</v>
       </c>
-      <c r="L23">
-        <v>32015</v>
+      <c r="L23" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -4804,8 +4483,8 @@
       <c r="D24" t="s">
         <v>16</v>
       </c>
-      <c r="E24">
-        <v>-6.9542014690166229E-2</v>
+      <c r="E24" t="n">
+        <v>-0.06954201469016623</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
@@ -4819,20 +4498,20 @@
       <c r="I24" t="s">
         <v>102</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="n">
         <v>-0.15814894716980402</v>
       </c>
-      <c r="K24">
-        <v>1.9064917789471475E-2</v>
-      </c>
-      <c r="L24">
-        <v>32015</v>
+      <c r="K24" t="n">
+        <v>0.019064917789471475</v>
+      </c>
+      <c r="L24" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -4845,8 +4524,8 @@
       <c r="D25" t="s">
         <v>16</v>
       </c>
-      <c r="E25">
-        <v>-2.1980246063671039E-2</v>
+      <c r="E25" t="n">
+        <v>-0.02198024606367104</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
@@ -4860,20 +4539,20 @@
       <c r="I25" t="s">
         <v>102</v>
       </c>
-      <c r="J25">
-        <v>-8.116449488325278E-2</v>
-      </c>
-      <c r="K25">
-        <v>3.7204002755910917E-2</v>
-      </c>
-      <c r="L25">
-        <v>32015</v>
+      <c r="J25" t="n">
+        <v>-0.08116449488325278</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.03720400275591092</v>
+      </c>
+      <c r="L25" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -4886,8 +4565,8 @@
       <c r="D26" t="s">
         <v>16</v>
       </c>
-      <c r="E26">
-        <v>-7.1336336131653147E-2</v>
+      <c r="E26" t="n">
+        <v>-0.07133633613165315</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -4901,20 +4580,20 @@
       <c r="I26" t="s">
         <v>102</v>
       </c>
-      <c r="J26">
+      <c r="J26" t="n">
         <v>-0.14583502252363612</v>
       </c>
-      <c r="K26">
-        <v>3.1623502603286696E-3</v>
-      </c>
-      <c r="L26">
-        <v>32015</v>
+      <c r="K26" t="n">
+        <v>0.0031623502603286696</v>
+      </c>
+      <c r="L26" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -4927,8 +4606,8 @@
       <c r="D27" t="s">
         <v>16</v>
       </c>
-      <c r="E27">
-        <v>2.0501934611610068E-2</v>
+      <c r="E27" t="n">
+        <v>0.020501934611610068</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
@@ -4942,20 +4621,20 @@
       <c r="I27" t="s">
         <v>102</v>
       </c>
-      <c r="J27">
-        <v>-3.551542215120794E-2</v>
-      </c>
-      <c r="K27">
-        <v>7.6519291374428186E-2</v>
-      </c>
-      <c r="L27">
-        <v>32015</v>
+      <c r="J27" t="n">
+        <v>-0.03551542215120794</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.07651929137442819</v>
+      </c>
+      <c r="L27" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -4968,8 +4647,8 @@
       <c r="D28" t="s">
         <v>16</v>
       </c>
-      <c r="E28">
-        <v>-1.5347417133124408E-2</v>
+      <c r="E28" t="n">
+        <v>-0.015347417133124408</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
@@ -4983,20 +4662,20 @@
       <c r="I28" t="s">
         <v>102</v>
       </c>
-      <c r="J28">
-        <v>-7.3479897949544723E-2</v>
-      </c>
-      <c r="K28">
-        <v>4.2785063683296105E-2</v>
-      </c>
-      <c r="L28">
-        <v>32015</v>
+      <c r="J28" t="n">
+        <v>-0.07347989794954472</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.042785063683296105</v>
+      </c>
+      <c r="L28" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -5009,8 +4688,8 @@
       <c r="D29" t="s">
         <v>16</v>
       </c>
-      <c r="E29">
-        <v>-4.8541006008385144E-3</v>
+      <c r="E29" t="n">
+        <v>-0.0048541006008385144</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
@@ -5024,20 +4703,20 @@
       <c r="I29" t="s">
         <v>102</v>
       </c>
-      <c r="J29">
-        <v>-6.0971087680627409E-2</v>
-      </c>
-      <c r="K29">
-        <v>5.1262886478950692E-2</v>
-      </c>
-      <c r="L29">
-        <v>32015</v>
+      <c r="J29" t="n">
+        <v>-0.06097108768062741</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.05126288647895069</v>
+      </c>
+      <c r="L29" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -5050,8 +4729,8 @@
       <c r="D30" t="s">
         <v>16</v>
       </c>
-      <c r="E30">
-        <v>1.63255408070235E-3</v>
+      <c r="E30" t="n">
+        <v>0.00163255408070235</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
@@ -5065,20 +4744,20 @@
       <c r="I30" t="s">
         <v>102</v>
       </c>
-      <c r="J30">
-        <v>-5.7643017039578706E-2</v>
-      </c>
-      <c r="K30">
-        <v>6.0908125200983404E-2</v>
-      </c>
-      <c r="L30">
-        <v>32015</v>
+      <c r="J30" t="n">
+        <v>-0.057643017039578706</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.060908125200983404</v>
+      </c>
+      <c r="L30" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -5091,8 +4770,8 @@
       <c r="D31" t="s">
         <v>16</v>
       </c>
-      <c r="E31">
-        <v>-3.0483896470023249E-2</v>
+      <c r="E31" t="n">
+        <v>-0.03048389647002325</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
@@ -5106,20 +4785,20 @@
       <c r="I31" t="s">
         <v>102</v>
       </c>
-      <c r="J31">
-        <v>-9.5916224109870163E-2</v>
-      </c>
-      <c r="K31">
-        <v>3.4948431169823511E-2</v>
-      </c>
-      <c r="L31">
-        <v>32015</v>
+      <c r="J31" t="n">
+        <v>-0.09591622410987016</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.03494843116982351</v>
+      </c>
+      <c r="L31" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -5132,8 +4811,8 @@
       <c r="D32" t="s">
         <v>16</v>
       </c>
-      <c r="E32">
-        <v>-6.2429467210480547E-4</v>
+      <c r="E32" t="n">
+        <v>-6.242946721048055E-4</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
@@ -5147,20 +4826,20 @@
       <c r="I32" t="s">
         <v>102</v>
       </c>
-      <c r="J32">
-        <v>-7.9403996122961992E-2</v>
-      </c>
-      <c r="K32">
-        <v>7.8155406778752393E-2</v>
-      </c>
-      <c r="L32">
-        <v>32015</v>
+      <c r="J32" t="n">
+        <v>-0.07940399612296199</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.07815540677875239</v>
+      </c>
+      <c r="L32" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -5173,8 +4852,8 @@
       <c r="D33" t="s">
         <v>16</v>
       </c>
-      <c r="E33">
-        <v>-5.2294166523742289E-2</v>
+      <c r="E33" t="n">
+        <v>-0.05229416652374229</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -5188,20 +4867,20 @@
       <c r="I33" t="s">
         <v>102</v>
       </c>
-      <c r="J33">
+      <c r="J33" t="n">
         <v>-0.13010275164151</v>
       </c>
-      <c r="K33">
-        <v>2.5514418594024812E-2</v>
-      </c>
-      <c r="L33">
-        <v>32015</v>
+      <c r="K33" t="n">
+        <v>0.025514418594024812</v>
+      </c>
+      <c r="L33" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -5214,8 +4893,8 @@
       <c r="D34" t="s">
         <v>16</v>
       </c>
-      <c r="E34">
-        <v>-1.3384196819220991E-2</v>
+      <c r="E34" t="n">
+        <v>-0.01338419681922099</v>
       </c>
       <c r="F34" t="s">
         <v>17</v>
@@ -5229,20 +4908,20 @@
       <c r="I34" t="s">
         <v>102</v>
       </c>
-      <c r="J34">
-        <v>-6.9111108673419103E-2</v>
-      </c>
-      <c r="K34">
-        <v>4.2342715034977024E-2</v>
-      </c>
-      <c r="L34">
-        <v>32015</v>
+      <c r="J34" t="n">
+        <v>-0.0691111086734191</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.042342715034977024</v>
+      </c>
+      <c r="L34" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -5255,8 +4934,8 @@
       <c r="D35" t="s">
         <v>16</v>
       </c>
-      <c r="E35">
-        <v>2.6356719997130143E-2</v>
+      <c r="E35" t="n">
+        <v>0.026356719997130143</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
@@ -5270,20 +4949,20 @@
       <c r="I35" t="s">
         <v>102</v>
       </c>
-      <c r="J35">
-        <v>-4.2076938858890293E-2</v>
-      </c>
-      <c r="K35">
-        <v>9.4790378853150864E-2</v>
-      </c>
-      <c r="L35">
-        <v>32015</v>
+      <c r="J35" t="n">
+        <v>-0.04207693885889029</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.09479037885315086</v>
+      </c>
+      <c r="L35" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -5296,8 +4975,8 @@
       <c r="D36" t="s">
         <v>16</v>
       </c>
-      <c r="E36">
-        <v>-5.8719731071252505E-3</v>
+      <c r="E36" t="n">
+        <v>-0.0058719731071252505</v>
       </c>
       <c r="F36" t="s">
         <v>17</v>
@@ -5311,20 +4990,20 @@
       <c r="I36" t="s">
         <v>102</v>
       </c>
-      <c r="J36">
-        <v>-0.10477146428959511</v>
-      </c>
-      <c r="K36">
-        <v>9.3027518075344845E-2</v>
-      </c>
-      <c r="L36">
-        <v>32015</v>
+      <c r="J36" t="n">
+        <v>-0.1047714642895951</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.09302751807534484</v>
+      </c>
+      <c r="L36" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M36" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -5337,8 +5016,8 @@
       <c r="D37" t="s">
         <v>16</v>
       </c>
-      <c r="E37">
-        <v>3.5960366696516317E-2</v>
+      <c r="E37" t="n">
+        <v>0.03596036669651632</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
@@ -5352,20 +5031,20 @@
       <c r="I37" t="s">
         <v>102</v>
       </c>
-      <c r="J37">
-        <v>-3.0461725941223282E-2</v>
-      </c>
-      <c r="K37">
+      <c r="J37" t="n">
+        <v>-0.030461725941223282</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.1023824593342556</v>
       </c>
-      <c r="L37">
-        <v>32015</v>
+      <c r="L37" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M37" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -5378,8 +5057,8 @@
       <c r="D38" t="s">
         <v>16</v>
       </c>
-      <c r="E38">
-        <v>-3.536827734708993E-2</v>
+      <c r="E38" t="n">
+        <v>-0.03536827734708993</v>
       </c>
       <c r="F38" t="s">
         <v>17</v>
@@ -5393,20 +5072,20 @@
       <c r="I38" t="s">
         <v>102</v>
       </c>
-      <c r="J38">
-        <v>-9.7347817440840326E-2</v>
-      </c>
-      <c r="K38">
-        <v>2.6611262746660466E-2</v>
-      </c>
-      <c r="L38">
-        <v>32015</v>
+      <c r="J38" t="n">
+        <v>-0.09734781744084033</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.026611262746660466</v>
+      </c>
+      <c r="L38" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M38" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -5419,8 +5098,8 @@
       <c r="D39" t="s">
         <v>16</v>
       </c>
-      <c r="E39">
-        <v>5.6530754613138362E-2</v>
+      <c r="E39" t="n">
+        <v>0.05653075461313836</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
@@ -5434,20 +5113,20 @@
       <c r="I39" t="s">
         <v>102</v>
       </c>
-      <c r="J39">
-        <v>-1.6602014478035797E-2</v>
-      </c>
-      <c r="K39">
-        <v>0.12966352370431239</v>
-      </c>
-      <c r="L39">
-        <v>32015</v>
+      <c r="J39" t="n">
+        <v>-0.016602014478035797</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.1296635237043124</v>
+      </c>
+      <c r="L39" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -5460,8 +5139,8 @@
       <c r="D40" t="s">
         <v>16</v>
       </c>
-      <c r="E40">
-        <v>1.2260750894439575E-2</v>
+      <c r="E40" t="n">
+        <v>0.012260750894439575</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
@@ -5475,20 +5154,20 @@
       <c r="I40" t="s">
         <v>102</v>
       </c>
-      <c r="J40">
-        <v>-4.4358665534669023E-2</v>
-      </c>
-      <c r="K40">
-        <v>6.8880167323548236E-2</v>
-      </c>
-      <c r="L40">
-        <v>32015</v>
+      <c r="J40" t="n">
+        <v>-0.04435866553466902</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.06888016732354824</v>
+      </c>
+      <c r="L40" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M40" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -5501,8 +5180,8 @@
       <c r="D41" t="s">
         <v>16</v>
       </c>
-      <c r="E41">
-        <v>5.3006433617582287E-4</v>
+      <c r="E41" t="n">
+        <v>5.300643361758229E-4</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
@@ -5516,20 +5195,20 @@
       <c r="I41" t="s">
         <v>102</v>
       </c>
-      <c r="J41">
-        <v>-2.0477559577001293E-3</v>
-      </c>
-      <c r="K41">
-        <v>3.107884630051805E-3</v>
-      </c>
-      <c r="L41">
-        <v>32015</v>
+      <c r="J41" t="n">
+        <v>-0.0020477559577001293</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.003107884630051805</v>
+      </c>
+      <c r="L41" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -5542,8 +5221,8 @@
       <c r="D42" t="s">
         <v>16</v>
       </c>
-      <c r="E42">
-        <v>4.1422121945988808E-4</v>
+      <c r="E42" t="n">
+        <v>4.142212194598881E-4</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -5557,38 +5236,33 @@
       <c r="I42" t="s">
         <v>102</v>
       </c>
-      <c r="J42">
-        <v>-1.227190411426069E-2</v>
-      </c>
-      <c r="K42">
-        <v>1.3100346553180446E-2</v>
-      </c>
-      <c r="L42">
-        <v>32015</v>
+      <c r="J42" t="n">
+        <v>-0.01227190411426069</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.013100346553180446</v>
+      </c>
+      <c r="L42" t="n">
+        <v>32015.0</v>
       </c>
       <c r="M42" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5629,7 +5303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -5640,10 +5314,10 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2">
-        <v>-9.6113784107525191E-3</v>
+        <v>104</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.006594988353231676</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -5657,20 +5331,20 @@
       <c r="I2" t="s">
         <v>102</v>
       </c>
-      <c r="J2">
-        <v>-3.8188728895033157E-2</v>
-      </c>
-      <c r="K2">
-        <v>1.8965972073528105E-2</v>
-      </c>
-      <c r="L2">
-        <v>586</v>
+      <c r="J2" t="n">
+        <v>-0.011064255098148613</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.024254231804611972</v>
+      </c>
+      <c r="L2" t="n">
+        <v>825.0</v>
       </c>
       <c r="M2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -5681,10 +5355,10 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3">
-        <v>7.8712694956496146E-4</v>
+        <v>105</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.009611378410752519</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -5698,20 +5372,20 @@
       <c r="I3" t="s">
         <v>102</v>
       </c>
-      <c r="J3">
-        <v>-1.3495129515134008E-3</v>
-      </c>
-      <c r="K3">
-        <v>2.9237668506433244E-3</v>
-      </c>
-      <c r="L3">
-        <v>11215</v>
+      <c r="J3" t="n">
+        <v>-0.03818872889503316</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.018965972073528105</v>
+      </c>
+      <c r="L3" t="n">
+        <v>586.0</v>
       </c>
       <c r="M3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -5724,8 +5398,8 @@
       <c r="D4" t="s">
         <v>106</v>
       </c>
-      <c r="E4">
-        <v>2.6443658387611999E-3</v>
+      <c r="E4" t="n">
+        <v>0.0026443658387612</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -5739,20 +5413,20 @@
       <c r="I4" t="s">
         <v>102</v>
       </c>
-      <c r="J4">
-        <v>-5.8893676306308925E-3</v>
-      </c>
-      <c r="K4">
-        <v>1.1178099308153293E-2</v>
-      </c>
-      <c r="L4">
-        <v>1573</v>
+      <c r="J4" t="n">
+        <v>-0.0058893676306308925</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.011178099308153293</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1573.0</v>
       </c>
       <c r="M4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -5763,10 +5437,10 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5">
-        <v>5.503143929618988E-3</v>
+        <v>107</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.01041977405224885</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -5780,20 +5454,20 @@
       <c r="I5" t="s">
         <v>102</v>
       </c>
-      <c r="J5">
-        <v>-4.3675369329836573E-3</v>
-      </c>
-      <c r="K5">
-        <v>1.5373824792221616E-2</v>
-      </c>
-      <c r="L5">
-        <v>1362</v>
+      <c r="J5" t="n">
+        <v>-0.01952367223731434</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.040363220341812035</v>
+      </c>
+      <c r="L5" t="n">
+        <v>173.0</v>
       </c>
       <c r="M5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -5804,10 +5478,10 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6">
-        <v>5.5539197108634602E-3</v>
+        <v>108</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.01271394119309391</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -5819,22 +5493,22 @@
         <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>102</v>
-      </c>
-      <c r="J6">
-        <v>2.3015501297249906E-4</v>
-      </c>
-      <c r="K6">
-        <v>1.0877684408754437E-2</v>
-      </c>
-      <c r="L6">
-        <v>2027</v>
+        <v>18</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.007687609536023729</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.017740272850164066</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4829.0</v>
       </c>
       <c r="M6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -5845,10 +5519,10 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7">
-        <v>6.5949883532316761E-3</v>
+        <v>109</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.871269495649615E-4</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -5862,20 +5536,20 @@
       <c r="I7" t="s">
         <v>102</v>
       </c>
-      <c r="J7">
-        <v>-1.1064255098148613E-2</v>
-      </c>
-      <c r="K7">
-        <v>2.4254231804611972E-2</v>
-      </c>
-      <c r="L7">
-        <v>825</v>
+      <c r="J7" t="n">
+        <v>-0.0013495129515134008</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0029237668506433244</v>
+      </c>
+      <c r="L7" t="n">
+        <v>11215.0</v>
       </c>
       <c r="M7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -5886,37 +5560,37 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E8">
-        <v>1.0419774052248851E-2</v>
+        <v>110</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.00555391971086346</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
         <v>102</v>
       </c>
-      <c r="J8">
-        <v>-1.9523672237314341E-2</v>
-      </c>
-      <c r="K8">
-        <v>4.0363220341812035E-2</v>
-      </c>
-      <c r="L8">
-        <v>173</v>
+      <c r="J8" t="n">
+        <v>2.3015501297249906E-4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.010877684408754437</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2027.0</v>
       </c>
       <c r="M8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -5927,10 +5601,10 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9">
-        <v>1.271394119309391E-2</v>
+        <v>111</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.01305371599436529</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -5944,20 +5618,20 @@
       <c r="I9" t="s">
         <v>18</v>
       </c>
-      <c r="J9">
-        <v>7.6876095360237286E-3</v>
-      </c>
-      <c r="K9">
-        <v>1.7740272850164066E-2</v>
-      </c>
-      <c r="L9">
-        <v>4829</v>
+      <c r="J9" t="n">
+        <v>0.009741856905543439</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.01636557508318719</v>
+      </c>
+      <c r="L9" t="n">
+        <v>9425.0</v>
       </c>
       <c r="M9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -5968,57 +5642,50 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10">
-        <v>1.305371599436529E-2</v>
+        <v>112</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.005503143929618988</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10">
-        <v>9.741856905543439E-3</v>
-      </c>
-      <c r="K10">
-        <v>1.636557508318719E-2</v>
-      </c>
-      <c r="L10">
-        <v>9425</v>
+        <v>102</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-0.004367536932983657</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.015373824792221616</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1362.0</v>
       </c>
       <c r="M10" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{00000000-0001-0000-0300-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L10">
-      <sortCondition ref="E1:E10"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6059,7 +5726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -6070,10 +5737,10 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2">
-        <v>-3.2502473093265101E-2</v>
+        <v>114</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.02339583910167038</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -6082,25 +5749,25 @@
         <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I2" t="s">
         <v>102</v>
       </c>
-      <c r="J2">
-        <v>-5.7299091121831555E-2</v>
-      </c>
-      <c r="K2">
-        <v>-7.7058550646985739E-3</v>
-      </c>
-      <c r="L2">
-        <v>570</v>
+      <c r="J2" t="n">
+        <v>-0.0022002950643589154</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.048991973267699676</v>
+      </c>
+      <c r="L2" t="n">
+        <v>663.0</v>
       </c>
       <c r="M2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -6111,10 +5778,10 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3">
-        <v>-2.1472659511321775E-2</v>
+        <v>115</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.015857969837931692</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -6126,22 +5793,22 @@
         <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J3">
-        <v>-3.8724604946357002E-2</v>
-      </c>
-      <c r="K3">
-        <v>-4.2207140762865365E-3</v>
-      </c>
-      <c r="L3">
-        <v>1684</v>
+        <v>18</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.009372656916065694</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.02234328275979771</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2482.0</v>
       </c>
       <c r="M3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -6152,16 +5819,16 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4">
-        <v>-1.8130411072864974E-2</v>
+        <v>116</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.00852271749155648</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="H4" t="s">
         <v>102</v>
@@ -6169,20 +5836,20 @@
       <c r="I4" t="s">
         <v>102</v>
       </c>
-      <c r="J4">
-        <v>-3.6330789578205479E-2</v>
-      </c>
-      <c r="K4">
-        <v>6.9967432475483149E-5</v>
-      </c>
-      <c r="L4">
-        <v>1022</v>
+      <c r="J4" t="n">
+        <v>-0.03520575998041358</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.01816032499730061</v>
+      </c>
+      <c r="L4" t="n">
+        <v>436.0</v>
       </c>
       <c r="M4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -6193,10 +5860,10 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5">
-        <v>-1.6841602583662844E-2</v>
+        <v>117</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.015958436563536568</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -6210,20 +5877,20 @@
       <c r="I5" t="s">
         <v>102</v>
       </c>
-      <c r="J5">
-        <v>-5.2777853910949732E-2</v>
-      </c>
-      <c r="K5">
-        <v>1.9094648743624057E-2</v>
-      </c>
-      <c r="L5">
-        <v>372</v>
+      <c r="J5" t="n">
+        <v>-0.04457477538750322</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.012657902260430117</v>
+      </c>
+      <c r="L5" t="n">
+        <v>367.0</v>
       </c>
       <c r="M5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -6234,10 +5901,10 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6">
-        <v>-1.5958436563536568E-2</v>
+        <v>118</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.005438732976104015</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -6251,20 +5918,20 @@
       <c r="I6" t="s">
         <v>102</v>
       </c>
-      <c r="J6">
-        <v>-4.4574775387503221E-2</v>
-      </c>
-      <c r="K6">
-        <v>1.2657902260430117E-2</v>
-      </c>
-      <c r="L6">
-        <v>367</v>
+      <c r="J6" t="n">
+        <v>-0.025887502598471782</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.015010036646263745</v>
+      </c>
+      <c r="L6" t="n">
+        <v>629.0</v>
       </c>
       <c r="M6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -6275,37 +5942,37 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7">
-        <v>-9.7936919749573616E-3</v>
+        <v>119</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.035292376243227834</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
         <v>102</v>
       </c>
-      <c r="J7">
-        <v>-3.3403292428114836E-2</v>
-      </c>
-      <c r="K7">
-        <v>1.3815908478200118E-2</v>
-      </c>
-      <c r="L7">
-        <v>643</v>
+      <c r="J7" t="n">
+        <v>0.002500999809815746</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.06808375267663992</v>
+      </c>
+      <c r="L7" t="n">
+        <v>312.0</v>
       </c>
       <c r="M7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -6316,10 +5983,10 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8">
-        <v>-9.2859385585547256E-3</v>
+        <v>120</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.007437255686332663</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -6333,20 +6000,20 @@
       <c r="I8" t="s">
         <v>102</v>
       </c>
-      <c r="J8">
-        <v>-2.9836106984299539E-2</v>
-      </c>
-      <c r="K8">
-        <v>1.1264229867190098E-2</v>
-      </c>
-      <c r="L8">
-        <v>879</v>
+      <c r="J8" t="n">
+        <v>-0.008891515257877129</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.02376602663054247</v>
+      </c>
+      <c r="L8" t="n">
+        <v>761.0</v>
       </c>
       <c r="M8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -6357,16 +6024,16 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9">
-        <v>-8.6274912272110288E-3</v>
+        <v>121</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.0020946835101078505</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="H9" t="s">
         <v>102</v>
@@ -6374,20 +6041,20 @@
       <c r="I9" t="s">
         <v>102</v>
       </c>
-      <c r="J9">
-        <v>-1.7835986185919805E-2</v>
-      </c>
-      <c r="K9">
-        <v>5.810037314977496E-4</v>
-      </c>
-      <c r="L9">
-        <v>1006</v>
+      <c r="J9" t="n">
+        <v>-0.006747916564230141</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.002558549544014442</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1941.0</v>
       </c>
       <c r="M9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -6398,10 +6065,10 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E10">
-        <v>-8.5227174915564804E-3</v>
+        <v>122</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.007320113420556913</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
@@ -6415,20 +6082,20 @@
       <c r="I10" t="s">
         <v>102</v>
       </c>
-      <c r="J10">
-        <v>-3.520575998041358E-2</v>
-      </c>
-      <c r="K10">
-        <v>1.8160324997300609E-2</v>
-      </c>
-      <c r="L10">
-        <v>436</v>
+      <c r="J10" t="n">
+        <v>-0.013563235614531412</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.02820346245564522</v>
+      </c>
+      <c r="L10" t="n">
+        <v>895.0</v>
       </c>
       <c r="M10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -6439,37 +6106,37 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11">
-        <v>-6.4227479564046503E-3</v>
+        <v>123</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.01748631818328522</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
-      </c>
-      <c r="J11">
-        <v>-1.4244681113200493E-2</v>
-      </c>
-      <c r="K11">
-        <v>1.3991852003911965E-3</v>
-      </c>
-      <c r="L11">
-        <v>901</v>
+        <v>18</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.007642566518353541</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.027330069848216888</v>
+      </c>
+      <c r="L11" t="n">
+        <v>951.0</v>
       </c>
       <c r="M11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -6480,10 +6147,10 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E12">
-        <v>-5.4387329761040153E-3</v>
+        <v>124</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.0031628531739866838</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -6497,20 +6164,20 @@
       <c r="I12" t="s">
         <v>102</v>
       </c>
-      <c r="J12">
-        <v>-2.5887502598471782E-2</v>
-      </c>
-      <c r="K12">
-        <v>1.5010036646263745E-2</v>
-      </c>
-      <c r="L12">
-        <v>629</v>
+      <c r="J12" t="n">
+        <v>-0.01355835501818329</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.00723264867020992</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1279.0</v>
       </c>
       <c r="M12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -6523,8 +6190,8 @@
       <c r="D13" t="s">
         <v>125</v>
       </c>
-      <c r="E13">
-        <v>-4.8338582779487689E-3</v>
+      <c r="E13" t="n">
+        <v>-0.004833858277948769</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -6538,20 +6205,20 @@
       <c r="I13" t="s">
         <v>102</v>
       </c>
-      <c r="J13">
-        <v>-2.8942309084242571E-2</v>
-      </c>
-      <c r="K13">
-        <v>1.9274592528345041E-2</v>
-      </c>
-      <c r="L13">
-        <v>582</v>
+      <c r="J13" t="n">
+        <v>-0.02894230908424257</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.01927459252834504</v>
+      </c>
+      <c r="L13" t="n">
+        <v>582.0</v>
       </c>
       <c r="M13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -6562,37 +6229,37 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14">
-        <v>-3.3124303153661723E-3</v>
+        <v>126</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.026239125907688086</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I14" t="s">
         <v>102</v>
       </c>
-      <c r="J14">
-        <v>-1.8202975221212003E-2</v>
-      </c>
-      <c r="K14">
-        <v>1.1578114590479664E-2</v>
-      </c>
-      <c r="L14">
-        <v>864</v>
+      <c r="J14" t="n">
+        <v>0.005234160947353229</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.04724409086802296</v>
+      </c>
+      <c r="L14" t="n">
+        <v>796.0</v>
       </c>
       <c r="M14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>113</v>
       </c>
@@ -6603,10 +6270,10 @@
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15">
-        <v>-3.1628531739866838E-3</v>
+        <v>127</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.009285938558554726</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
@@ -6620,20 +6287,20 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
-      <c r="J15">
-        <v>-1.3558355018183289E-2</v>
-      </c>
-      <c r="K15">
-        <v>7.2326486702099201E-3</v>
-      </c>
-      <c r="L15">
-        <v>1279</v>
+      <c r="J15" t="n">
+        <v>-0.02983610698429954</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.011264229867190098</v>
+      </c>
+      <c r="L15" t="n">
+        <v>879.0</v>
       </c>
       <c r="M15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -6644,37 +6311,37 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16">
-        <v>-2.0946835101078505E-3</v>
+        <v>128</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.017114583581645665</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>102</v>
-      </c>
-      <c r="J16">
-        <v>-6.7479165642301414E-3</v>
-      </c>
-      <c r="K16">
-        <v>2.5585495440144418E-3</v>
-      </c>
-      <c r="L16">
-        <v>1941</v>
+        <v>18</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.01275259011856228</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.021476577044729245</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6288.0</v>
       </c>
       <c r="M16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>113</v>
       </c>
@@ -6685,16 +6352,16 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17">
-        <v>-1.2859260788778643E-3</v>
+        <v>129</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.020780854311893946</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="H17" t="s">
         <v>102</v>
@@ -6702,20 +6369,20 @@
       <c r="I17" t="s">
         <v>102</v>
       </c>
-      <c r="J17">
-        <v>-3.1107085027653875E-2</v>
-      </c>
-      <c r="K17">
-        <v>2.8535232869898151E-2</v>
-      </c>
-      <c r="L17">
-        <v>372</v>
+      <c r="J17" t="n">
+        <v>-0.0021818094694930033</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.04374351809328092</v>
+      </c>
+      <c r="L17" t="n">
+        <v>373.0</v>
       </c>
       <c r="M17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>113</v>
       </c>
@@ -6726,37 +6393,37 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18">
-        <v>-8.2010841313014517E-4</v>
+        <v>130</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.011355137728408429</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J18">
-        <v>-3.4078089416552423E-2</v>
-      </c>
-      <c r="K18">
-        <v>3.2437872590292127E-2</v>
-      </c>
-      <c r="L18">
-        <v>499</v>
+        <v>18</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0028100560066103095</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.01990021945020653</v>
+      </c>
+      <c r="L18" t="n">
+        <v>886.0</v>
       </c>
       <c r="M18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>113</v>
       </c>
@@ -6767,10 +6434,10 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E19">
-        <v>3.0080119222476707E-3</v>
+        <v>131</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.0012859260788778643</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
@@ -6784,20 +6451,20 @@
       <c r="I19" t="s">
         <v>102</v>
       </c>
-      <c r="J19">
-        <v>-1.7166929718416803E-2</v>
-      </c>
-      <c r="K19">
-        <v>2.3182953562912147E-2</v>
-      </c>
-      <c r="L19">
-        <v>669</v>
+      <c r="J19" t="n">
+        <v>-0.031107085027653875</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.02853523286989815</v>
+      </c>
+      <c r="L19" t="n">
+        <v>372.0</v>
       </c>
       <c r="M19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>113</v>
       </c>
@@ -6808,37 +6475,37 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20">
-        <v>6.3026721577418609E-3</v>
+        <v>132</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.01517450211129885</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I20" t="s">
         <v>102</v>
       </c>
-      <c r="J20">
-        <v>-1.4881803637917239E-2</v>
-      </c>
-      <c r="K20">
-        <v>2.7487147953400945E-2</v>
-      </c>
-      <c r="L20">
-        <v>775</v>
+      <c r="J20" t="n">
+        <v>0.003145980551256894</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.027203023671340847</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1286.0</v>
       </c>
       <c r="M20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -6849,10 +6516,10 @@
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
-      </c>
-      <c r="E21">
-        <v>7.3201134205569127E-3</v>
+        <v>133</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.00642274795640465</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
@@ -6866,20 +6533,20 @@
       <c r="I21" t="s">
         <v>102</v>
       </c>
-      <c r="J21">
-        <v>-1.3563235614531412E-2</v>
-      </c>
-      <c r="K21">
-        <v>2.8203462455645222E-2</v>
-      </c>
-      <c r="L21">
-        <v>895</v>
+      <c r="J21" t="n">
+        <v>-0.014244681113200493</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0013991852003911965</v>
+      </c>
+      <c r="L21" t="n">
+        <v>901.0</v>
       </c>
       <c r="M21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>113</v>
       </c>
@@ -6890,16 +6557,16 @@
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22">
-        <v>7.4372556863326628E-3</v>
+        <v>134</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.018130411072864974</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
         <v>102</v>
@@ -6907,20 +6574,20 @@
       <c r="I22" t="s">
         <v>102</v>
       </c>
-      <c r="J22">
-        <v>-8.8915152578771285E-3</v>
-      </c>
-      <c r="K22">
-        <v>2.3766026630542472E-2</v>
-      </c>
-      <c r="L22">
-        <v>761</v>
+      <c r="J22" t="n">
+        <v>-0.03633078957820548</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6.996743247548315E-5</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1022.0</v>
       </c>
       <c r="M22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>113</v>
       </c>
@@ -6931,37 +6598,37 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23">
-        <v>1.1355137728408429E-2</v>
+        <v>135</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.006302672157741861</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23">
-        <v>2.8100560066103095E-3</v>
-      </c>
-      <c r="K23">
-        <v>1.9900219450206529E-2</v>
-      </c>
-      <c r="L23">
-        <v>886</v>
+        <v>102</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.014881803637917239</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.027487147953400945</v>
+      </c>
+      <c r="L23" t="n">
+        <v>775.0</v>
       </c>
       <c r="M23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -6972,10 +6639,10 @@
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24">
-        <v>1.2857759700649037E-2</v>
+        <v>136</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.009793691974957362</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
@@ -6989,20 +6656,20 @@
       <c r="I24" t="s">
         <v>102</v>
       </c>
-      <c r="J24">
-        <v>-1.1428542214751338E-2</v>
-      </c>
-      <c r="K24">
-        <v>3.7144061616049398E-2</v>
-      </c>
-      <c r="L24">
-        <v>294</v>
+      <c r="J24" t="n">
+        <v>-0.033403292428114836</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.013815908478200118</v>
+      </c>
+      <c r="L24" t="n">
+        <v>643.0</v>
       </c>
       <c r="M24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>113</v>
       </c>
@@ -7013,10 +6680,10 @@
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25">
-        <v>1.517450211129885E-2</v>
+        <v>137</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.02270088592346873</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
@@ -7025,25 +6692,25 @@
         <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I25" t="s">
         <v>102</v>
       </c>
-      <c r="J25">
-        <v>3.1459805512568939E-3</v>
-      </c>
-      <c r="K25">
-        <v>2.7203023671340847E-2</v>
-      </c>
-      <c r="L25">
-        <v>1286</v>
+      <c r="J25" t="n">
+        <v>-7.744129113602324E-4</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.04617618475829773</v>
+      </c>
+      <c r="L25" t="n">
+        <v>583.0</v>
       </c>
       <c r="M25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>113</v>
       </c>
@@ -7054,10 +6721,10 @@
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26">
-        <v>1.5857969837931692E-2</v>
+        <v>138</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.0325024730932651</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -7069,22 +6736,22 @@
         <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26">
-        <v>9.3726569160656938E-3</v>
-      </c>
-      <c r="K26">
-        <v>2.234328275979771E-2</v>
-      </c>
-      <c r="L26">
-        <v>2482</v>
+        <v>102</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-0.057299091121831555</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-0.007705855064698574</v>
+      </c>
+      <c r="L26" t="n">
+        <v>570.0</v>
       </c>
       <c r="M26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -7095,10 +6762,10 @@
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27">
-        <v>1.7114583581645665E-2</v>
+        <v>139</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.021472659511321775</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
@@ -7110,22 +6777,22 @@
         <v>18</v>
       </c>
       <c r="I27" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27">
-        <v>1.2752590118562279E-2</v>
-      </c>
-      <c r="K27">
-        <v>2.1476577044729245E-2</v>
-      </c>
-      <c r="L27">
-        <v>6288</v>
+        <v>102</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-0.038724604946357</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-0.0042207140762865365</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1684.0</v>
       </c>
       <c r="M27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -7136,37 +6803,37 @@
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28">
-        <v>1.7486318183285221E-2</v>
+        <v>140</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0030080119222476707</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I28" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28">
-        <v>7.6425665183535406E-3</v>
-      </c>
-      <c r="K28">
-        <v>2.7330069848216888E-2</v>
-      </c>
-      <c r="L28">
-        <v>951</v>
+        <v>102</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-0.017166929718416803</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.023182953562912147</v>
+      </c>
+      <c r="L28" t="n">
+        <v>669.0</v>
       </c>
       <c r="M28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>113</v>
       </c>
@@ -7177,16 +6844,16 @@
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
-      </c>
-      <c r="E29">
-        <v>2.0780854311893946E-2</v>
+        <v>141</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.016841602583662844</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
       </c>
       <c r="G29" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="H29" t="s">
         <v>102</v>
@@ -7194,20 +6861,20 @@
       <c r="I29" t="s">
         <v>102</v>
       </c>
-      <c r="J29">
-        <v>-2.1818094694930033E-3</v>
-      </c>
-      <c r="K29">
-        <v>4.374351809328092E-2</v>
-      </c>
-      <c r="L29">
-        <v>373</v>
+      <c r="J29" t="n">
+        <v>-0.05277785391094973</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.019094648743624057</v>
+      </c>
+      <c r="L29" t="n">
+        <v>372.0</v>
       </c>
       <c r="M29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -7218,16 +6885,16 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>137</v>
-      </c>
-      <c r="E30">
-        <v>2.2700885923468729E-2</v>
+        <v>142</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-8.201084131301452E-4</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
       </c>
       <c r="G30" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="H30" t="s">
         <v>102</v>
@@ -7235,20 +6902,20 @@
       <c r="I30" t="s">
         <v>102</v>
       </c>
-      <c r="J30">
-        <v>-7.7441291136023244E-4</v>
-      </c>
-      <c r="K30">
-        <v>4.6176184758297732E-2</v>
-      </c>
-      <c r="L30">
-        <v>583</v>
+      <c r="J30" t="n">
+        <v>-0.03407808941655242</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.03243787259029213</v>
+      </c>
+      <c r="L30" t="n">
+        <v>499.0</v>
       </c>
       <c r="M30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -7259,16 +6926,16 @@
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31">
-        <v>2.3395839101670379E-2</v>
+        <v>143</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.0033124303153661723</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="H31" t="s">
         <v>102</v>
@@ -7276,20 +6943,20 @@
       <c r="I31" t="s">
         <v>102</v>
       </c>
-      <c r="J31">
-        <v>-2.2002950643589154E-3</v>
-      </c>
-      <c r="K31">
-        <v>4.8991973267699676E-2</v>
-      </c>
-      <c r="L31">
-        <v>663</v>
+      <c r="J31" t="n">
+        <v>-0.018202975221212003</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.011578114590479664</v>
+      </c>
+      <c r="L31" t="n">
+        <v>864.0</v>
       </c>
       <c r="M31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" t="s">
         <v>113</v>
       </c>
@@ -7300,37 +6967,37 @@
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E32">
-        <v>2.6239125907688086E-2</v>
+        <v>144</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.012857759700649037</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I32" t="s">
         <v>102</v>
       </c>
-      <c r="J32">
-        <v>5.2341609473532287E-3</v>
-      </c>
-      <c r="K32">
-        <v>4.7244090868022962E-2</v>
-      </c>
-      <c r="L32">
-        <v>796</v>
+      <c r="J32" t="n">
+        <v>-0.011428542214751338</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0371440616160494</v>
+      </c>
+      <c r="L32" t="n">
+        <v>294.0</v>
       </c>
       <c r="M32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -7341,10 +7008,10 @@
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
-      </c>
-      <c r="E33">
-        <v>3.5292376243227834E-2</v>
+        <v>145</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-0.008627491227211029</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -7353,43 +7020,38 @@
         <v>18</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I33" t="s">
         <v>102</v>
       </c>
-      <c r="J33">
-        <v>2.500999809815746E-3</v>
-      </c>
-      <c r="K33">
-        <v>6.8083752676639922E-2</v>
-      </c>
-      <c r="L33">
-        <v>312</v>
+      <c r="J33" t="n">
+        <v>-0.017835986185919805</v>
+      </c>
+      <c r="K33" t="n">
+        <v>5.810037314977496E-4</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1006.0</v>
       </c>
       <c r="M33" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{00000000-0001-0000-0400-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L33">
-      <sortCondition ref="E1:E33"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7430,7 +7092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -7443,8 +7105,8 @@
       <c r="D2" t="s">
         <v>147</v>
       </c>
-      <c r="E2">
-        <v>9.4649808041748409E-3</v>
+      <c r="E2" t="n">
+        <v>0.009464980804174841</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -7458,20 +7120,20 @@
       <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="J2">
-        <v>5.5364430080422017E-3</v>
-      </c>
-      <c r="K2">
-        <v>1.3393518600307533E-2</v>
-      </c>
-      <c r="L2">
-        <v>6574</v>
+      <c r="J2" t="n">
+        <v>0.005536443008042202</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.013393518600307533</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6574.0</v>
       </c>
       <c r="M2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -7484,8 +7146,8 @@
       <c r="D3" t="s">
         <v>148</v>
       </c>
-      <c r="E3">
-        <v>1.0969287329162612E-2</v>
+      <c r="E3" t="n">
+        <v>0.010969287329162612</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -7499,299 +7161,20 @@
       <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="J3">
-        <v>9.033552950750097E-3</v>
-      </c>
-      <c r="K3">
-        <v>1.2905021707575265E-2</v>
-      </c>
-      <c r="L3">
-        <v>25486</v>
+      <c r="J3" t="n">
+        <v>0.009033552950750097</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.012905021707575265</v>
+      </c>
+      <c r="L3" t="n">
+        <v>25486.0</v>
       </c>
       <c r="M3" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100062359308C733147A209A9423741ABB1" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="46cc87e7723544f0ef0a90085231f4be">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2d4c2ad-b63f-415b-82f0-3296fc2966de" xmlns:ns3="69276225-f05c-44c5-92dc-c999460a4149" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9cd408853cc4d95ae2a27577a971dd5" ns2:_="" ns3:_="">
-    <xsd:import namespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
-    <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="69276225-f05c-44c5-92dc-c999460a4149" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{32d65da7-472f-44c6-be22-218d2da46f49}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="69276225-f05c-44c5-92dc-c999460a4149">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="22" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="23" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D98F114B-545E-48F6-AB74-8880811A2818}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FCAD6B6-A52F-401D-AD26-02CA7EF0442E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/National/Hypothesis/Output/Detenciones/Tipo/hyp_detenciones_flagrancia_years.xlsx
+++ b/National/Hypothesis/Output/Detenciones/Tipo/hyp_detenciones_flagrancia_years.xlsx
@@ -7177,4 +7177,264 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100062359308C733147A209A9423741ABB1" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="46cc87e7723544f0ef0a90085231f4be">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2d4c2ad-b63f-415b-82f0-3296fc2966de" xmlns:ns3="69276225-f05c-44c5-92dc-c999460a4149" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9cd408853cc4d95ae2a27577a971dd5" ns2:_="" ns3:_="">
+    <xsd:import namespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
+    <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="69276225-f05c-44c5-92dc-c999460a4149" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{32d65da7-472f-44c6-be22-218d2da46f49}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="69276225-f05c-44c5-92dc-c999460a4149">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="22" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="23" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86A10174-58BC-47B1-BB8E-4BA4FF6A312C}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFFE0E67-7A8F-4BB0-8D04-0BB564B1C3FE}"/>
 </file>